--- a/python/result_data/ANA.MC_resultados.xlsx
+++ b/python/result_data/ANA.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,46 +415,46 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971967140736435</v>
+        <v>-0.02253738955501851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40556</v>
+        <v>40560</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1849106489672983</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40560</v>
+        <v>40561</v>
       </c>
       <c r="B4" t="n">
         <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04952963811624073</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40561</v>
+        <v>40568</v>
       </c>
       <c r="B5" t="n">
         <v>52</v>
@@ -466,12 +466,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04952963811624073</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40563</v>
+        <v>40570</v>
       </c>
       <c r="B6" t="n">
         <v>52</v>
@@ -483,12 +483,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04952963811624073</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40568</v>
+        <v>40582</v>
       </c>
       <c r="B7" t="n">
         <v>51</v>
@@ -500,109 +500,109 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01816086730928804</v>
+        <v>-0.9014955822007353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40570</v>
+        <v>40583</v>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04952963811624073</v>
+        <v>-0.9014955822007353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40576</v>
+        <v>40588</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1535418781603456</v>
+        <v>-0.9014955822007353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40583</v>
+        <v>40589</v>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01816086730928804</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40589</v>
+        <v>40590</v>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1535418781603456</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40590</v>
+        <v>40591</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.08585137273481681</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40591</v>
+        <v>40597</v>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04952963811624073</v>
+        <v>-0.9014955822007353</v>
       </c>
     </row>
     <row r="14">
@@ -619,32 +619,32 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01816086730928804</v>
+        <v>-0.9014955822007353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40616</v>
+        <v>40604</v>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1172201435417695</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40638</v>
+        <v>40610</v>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -653,24 +653,24 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1535418781603456</v>
+        <v>-0.8428983693576876</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40647</v>
+        <v>40638</v>
       </c>
       <c r="B17" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01816086730928804</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="18">
@@ -678,16 +678,16 @@
         <v>40660</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.298673898541622</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="19">
@@ -695,16 +695,16 @@
         <v>40661</v>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.08585137273481681</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="20">
@@ -721,24 +721,24 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.08585137273481681</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40668</v>
+        <v>40666</v>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01816086730928804</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="22">
@@ -752,290 +752,290 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1535418781603456</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40696</v>
+        <v>40701</v>
       </c>
       <c r="B23" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1172201435417695</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40722</v>
+        <v>40702</v>
       </c>
       <c r="B24" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1535418781603456</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40735</v>
+        <v>40703</v>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4243038998624607</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40751</v>
+        <v>40707</v>
       </c>
       <c r="B26" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4243038998624607</v>
+        <v>1.969767847108606</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40766</v>
+        <v>40708</v>
       </c>
       <c r="B27" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4243038998624607</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40777</v>
+        <v>40715</v>
       </c>
       <c r="B28" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4919944052879895</v>
+        <v>-1.018690007886831</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40778</v>
+        <v>40721</v>
       </c>
       <c r="B29" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5596849107135182</v>
+        <v>-0.9600927950437831</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40793</v>
+        <v>40735</v>
       </c>
       <c r="B30" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.627375416139047</v>
+        <v>1.325198505835081</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40794</v>
+        <v>40738</v>
       </c>
       <c r="B31" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C31" t="n">
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.627375416139047</v>
+        <v>1.383795718678128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40804</v>
+        <v>40744</v>
       </c>
       <c r="B32" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>3.298673898541622</v>
+        <v>1.266601292992033</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40807</v>
+        <v>40751</v>
       </c>
       <c r="B33" t="n">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6950659215645758</v>
+        <v>1.266601292992033</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40826</v>
+        <v>40764</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.7627564269901046</v>
+        <v>1.032212441619842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40828</v>
+        <v>40766</v>
       </c>
       <c r="B35" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.8304469324156334</v>
+        <v>1.208004080148985</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40834</v>
+        <v>40777</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.7627564269901046</v>
+        <v>0.9736152287767939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40843</v>
+        <v>40785</v>
       </c>
       <c r="B37" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.6950659215645758</v>
+        <v>0.9736152287767939</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40855</v>
+        <v>40794</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.7627564269901046</v>
+        <v>0.8564208030906983</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40861</v>
+        <v>40798</v>
       </c>
       <c r="B39" t="n">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1044,58 +1044,245 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.8304469324156334</v>
+        <v>0.7392263774046027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40863</v>
+        <v>40801</v>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8304469324156334</v>
+        <v>0.8564208030906983</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40898</v>
+        <v>40813</v>
       </c>
       <c r="B41" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.6950659215645758</v>
+        <v>0.680629164561555</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
+        <v>40814</v>
+      </c>
+      <c r="B42" t="n">
+        <v>80</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7978235902476505</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>40826</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.680629164561555</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>40840</v>
+      </c>
+      <c r="B44" t="n">
+        <v>77</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6220319517185071</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>40841</v>
+      </c>
+      <c r="B45" t="n">
+        <v>76</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5634347388754594</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>40849</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.680629164561555</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>40854</v>
+      </c>
+      <c r="B47" t="n">
+        <v>76</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5634347388754594</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>40855</v>
+      </c>
+      <c r="B48" t="n">
+        <v>76</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5634347388754594</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="B49" t="n">
+        <v>75</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5048375260324116</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>40868</v>
+      </c>
+      <c r="B50" t="n">
+        <v>75</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5048375260324116</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B51" t="n">
+        <v>76</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5634347388754594</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>40905</v>
+      </c>
+      <c r="B52" t="n">
+        <v>99</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.911170634265559</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>40906</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B53" t="n">
         <v>100</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C53" t="n">
         <v>3</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="n">
-        <v>3.298673898541622</v>
+      <c r="E53" t="n">
+        <v>1.969767847108606</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,7 +1341,7 @@
         <v>40553</v>
       </c>
       <c r="B2" t="n">
-        <v>50.320293</v>
+        <v>31.494579</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1171,222 +1358,222 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40557</v>
+        <v>40561</v>
       </c>
       <c r="B3" t="n">
-        <v>54.253551</v>
+        <v>35.609756</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07816444947965628</v>
+        <v>0.130663026167138</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5914301004152251</v>
+        <v>1.171680006619217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40561</v>
+        <v>40562</v>
       </c>
       <c r="B4" t="n">
-        <v>56.895294</v>
+        <v>37.257053</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04869253627287917</v>
+        <v>0.04625971040071164</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3252763550706314</v>
+        <v>0.3420147742228555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40562</v>
+        <v>40569</v>
       </c>
       <c r="B5" t="n">
-        <v>59.527252</v>
+        <v>38.424412</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04625967834879274</v>
+        <v>0.03133256406511808</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3033058014847862</v>
+        <v>0.1952843499370717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40564</v>
+        <v>40571</v>
       </c>
       <c r="B6" t="n">
-        <v>60.985104</v>
+        <v>38.468033</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02449049722637975</v>
+        <v>0.001135241835320766</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1067135732108946</v>
+        <v>-0.1015484005068199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40569</v>
+        <v>40583</v>
       </c>
       <c r="B7" t="n">
-        <v>60.33934</v>
+        <v>42.598953</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01058888085195364</v>
+        <v>0.1073857870507702</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2100798359716665</v>
+        <v>0.9428700857569736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40571</v>
+        <v>40584</v>
       </c>
       <c r="B8" t="n">
-        <v>60.407833</v>
+        <v>41.944736</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001135130082629221</v>
+        <v>-0.0153575840232506</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1042031187457668</v>
+        <v>-0.2636690953464807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40577</v>
+        <v>40589</v>
       </c>
       <c r="B9" t="n">
-        <v>64.047562</v>
+        <v>42.243809</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06025260002291422</v>
+        <v>0.007130167656794972</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4296725047846782</v>
+        <v>-0.04261965487985245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40584</v>
+        <v>40590</v>
       </c>
       <c r="B10" t="n">
-        <v>65.86743199999999</v>
+        <v>42.773407</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02841435244638957</v>
+        <v>0.01253670094001236</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1421489640410834</v>
+        <v>0.01052532706958285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40590</v>
+        <v>40591</v>
       </c>
       <c r="B11" t="n">
-        <v>67.168739</v>
+        <v>42.218884</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01975645566385542</v>
+        <v>-0.01296419992917552</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06396158477896996</v>
+        <v>-0.2401426787289191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40591</v>
+        <v>40592</v>
       </c>
       <c r="B12" t="n">
-        <v>66.297943</v>
+        <v>42.636333</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01296430471919385</v>
+        <v>0.009887731755297002</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2315317164319259</v>
+        <v>-0.01551343235936701</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40592</v>
+        <v>40598</v>
       </c>
       <c r="B13" t="n">
-        <v>66.953484</v>
+        <v>41.932274</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00988780300468739</v>
+        <v>-0.01651312273970651</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02515983900896621</v>
+        <v>-0.2750277758559582</v>
       </c>
     </row>
     <row r="14">
@@ -1394,79 +1581,79 @@
         <v>40599</v>
       </c>
       <c r="B14" t="n">
-        <v>66.385994</v>
+        <v>42.274952</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00847588454097481</v>
+        <v>0.00817217783132862</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1909978755261191</v>
+        <v>-0.03237693389474019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40617</v>
+        <v>40605</v>
       </c>
       <c r="B15" t="n">
-        <v>72.92186</v>
+        <v>43.321709</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09845248381759553</v>
+        <v>0.02476069044383533</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7746464490396699</v>
+        <v>0.130684339786168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40639</v>
+        <v>40611</v>
       </c>
       <c r="B16" t="n">
-        <v>76.375694</v>
+        <v>46.187798</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04736349292242403</v>
+        <v>0.06615826259301083</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3132740848763903</v>
+        <v>0.5376129776709478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40648</v>
+        <v>40639</v>
       </c>
       <c r="B17" t="n">
-        <v>73.675247</v>
+        <v>48.636452</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03535741357715183</v>
+        <v>0.0530151708033364</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4337584857169345</v>
+        <v>0.4084194003207029</v>
       </c>
     </row>
     <row r="18">
@@ -1474,19 +1661,19 @@
         <v>40661</v>
       </c>
       <c r="B18" t="n">
-        <v>76.58116099999999</v>
+        <v>48.7673</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03944220234511042</v>
+        <v>0.002690327822432392</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2417388187291605</v>
+        <v>-0.08626226198041728</v>
       </c>
     </row>
     <row r="19">
@@ -1494,19 +1681,19 @@
         <v>40662</v>
       </c>
       <c r="B19" t="n">
-        <v>76.845337</v>
+        <v>48.935524</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003449621245622092</v>
+        <v>0.003449524578970076</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.08330150685258761</v>
+        <v>-0.0787995320185933</v>
       </c>
     </row>
     <row r="20">
@@ -1514,39 +1701,39 @@
         <v>40666</v>
       </c>
       <c r="B20" t="n">
-        <v>75.778854</v>
+        <v>48.256382</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01387830467839579</v>
+        <v>-0.01387830239643495</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2397858297865506</v>
+        <v>-0.249128096292746</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40669</v>
+        <v>40667</v>
       </c>
       <c r="B21" t="n">
-        <v>73.86114499999999</v>
+        <v>47.465088</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02530665085011718</v>
+        <v>-0.01639770673234475</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3429924697952066</v>
+        <v>-0.2738932629792953</v>
       </c>
     </row>
     <row r="22">
@@ -1554,419 +1741,639 @@
         <v>40682</v>
       </c>
       <c r="B22" t="n">
-        <v>73.000137</v>
+        <v>46.486877</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01165711687789295</v>
+        <v>-0.02060906323401324</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2197268180736086</v>
+        <v>-0.3152899313321108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40697</v>
+        <v>40702</v>
       </c>
       <c r="B23" t="n">
-        <v>73.35237100000001</v>
+        <v>44.779682</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004825114232319905</v>
+        <v>-0.036724235099725</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07087976118795052</v>
+        <v>-0.4736983740534027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40723</v>
+        <v>40703</v>
       </c>
       <c r="B24" t="n">
-        <v>69.04731</v>
+        <v>45.483734</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05869014104533865</v>
+        <v>0.01572257703839863</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6444707242198147</v>
+        <v>0.04184175829686255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40736</v>
+        <v>40704</v>
       </c>
       <c r="B25" t="n">
-        <v>41.901123</v>
+        <v>44.835758</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3931534334936437</v>
+        <v>-0.01424632375169554</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.664928111591958</v>
+        <v>-0.2527456617931829</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40752</v>
+        <v>40708</v>
       </c>
       <c r="B26" t="n">
-        <v>46.964745</v>
+        <v>46.200264</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1208469281360312</v>
+        <v>0.03043343217259764</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9768852785464019</v>
+        <v>0.1864460896887736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40767</v>
+        <v>40709</v>
       </c>
       <c r="B27" t="n">
-        <v>40.783432</v>
+        <v>45.465054</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1316160238919641</v>
+        <v>-0.01591354542909096</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.303046796835528</v>
+        <v>-0.2691340684318559</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40778</v>
+        <v>40716</v>
       </c>
       <c r="B28" t="n">
-        <v>40.5256</v>
+        <v>45.651966</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.006321978984014875</v>
+        <v>0.004111113559878365</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1715464735393762</v>
+        <v>-0.07229626410059893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40779</v>
+        <v>40722</v>
       </c>
       <c r="B29" t="n">
-        <v>41.312321</v>
+        <v>42.493023</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01941293898177943</v>
+        <v>-0.06919620942502236</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06085936841176615</v>
+        <v>-0.7928904328052339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40794</v>
+        <v>40736</v>
       </c>
       <c r="B30" t="n">
-        <v>41.940357</v>
+        <v>65.79894299999999</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0152021475627091</v>
+        <v>0.5484646267694344</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02283272592040821</v>
+        <v>5.278573899491132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40795</v>
+        <v>40739</v>
       </c>
       <c r="B31" t="n">
-        <v>40.426437</v>
+        <v>65.33908099999999</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03609697456795613</v>
+        <v>-0.006988896462972072</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.4404372827883122</v>
+        <v>-0.1814068163530188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40805</v>
+        <v>40745</v>
       </c>
       <c r="B32" t="n">
-        <v>41.960194</v>
+        <v>69.448463</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03793945531237397</v>
+        <v>0.06289317108699488</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2281678724433826</v>
+        <v>0.5055178771581827</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40808</v>
+        <v>40752</v>
       </c>
       <c r="B33" t="n">
-        <v>39.401722</v>
+        <v>69.507164</v>
       </c>
       <c r="C33" t="n">
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.06097378863405645</v>
+        <v>0.0008452454880103488</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6650937952271162</v>
+        <v>-0.1043989980775506</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40827</v>
+        <v>40765</v>
       </c>
       <c r="B34" t="n">
-        <v>43.712116</v>
+        <v>56.122341</v>
       </c>
       <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.1925675316000521</v>
+      </c>
+      <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.1093960817245501</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
-        <v>0.8734754442951063</v>
+        <v>-2.00560222918359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40829</v>
+        <v>40767</v>
       </c>
       <c r="B35" t="n">
-        <v>44.8955</v>
+        <v>60.35891</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02707221951918304</v>
+        <v>0.07548810196638089</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1300284850338305</v>
+        <v>0.6293231585049436</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40835</v>
+        <v>40778</v>
       </c>
       <c r="B36" t="n">
-        <v>45.616096</v>
+        <v>59.977325</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01605051731242546</v>
+        <v>-0.006321933248960243</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03049414867026018</v>
+        <v>-0.1748507209564318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40844</v>
+        <v>40786</v>
       </c>
       <c r="B37" t="n">
-        <v>46.792858</v>
+        <v>63.851883</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02579707829446876</v>
+        <v>0.06460038022702741</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1185129919465695</v>
+        <v>0.5222993513817072</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40856</v>
+        <v>40795</v>
       </c>
       <c r="B38" t="n">
-        <v>44.52528</v>
+        <v>59.830563</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.04845991668215688</v>
+        <v>-0.06297887879046582</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5520840335128732</v>
+        <v>-0.7317754988839267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40862</v>
+        <v>40799</v>
       </c>
       <c r="B39" t="n">
-        <v>44.439339</v>
+        <v>58.803219</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.001930161921497309</v>
+        <v>-0.01717088973406455</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1318850320898081</v>
+        <v>-0.2814934745229032</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40864</v>
+        <v>40802</v>
       </c>
       <c r="B40" t="n">
-        <v>45.285549</v>
+        <v>63.343098</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01904191239208131</v>
+        <v>0.07720459997266471</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05750871669880309</v>
+        <v>0.646195940152911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40899</v>
+        <v>40814</v>
       </c>
       <c r="B41" t="n">
-        <v>43.533619</v>
+        <v>63.020226</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.03868629261842449</v>
+        <v>-0.005097193067506667</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4638207900681193</v>
+        <v>-0.1628118059204062</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
+        <v>40815</v>
+      </c>
+      <c r="B42" t="n">
+        <v>63.098492</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00124191874526125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1004997909531144</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>40827</v>
+      </c>
+      <c r="B43" t="n">
+        <v>64.69332900000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02527535840317707</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1357434077649177</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>40841</v>
+      </c>
+      <c r="B44" t="n">
+        <v>67.25679</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.03962481201114243</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.2767952450571797</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>40842</v>
+      </c>
+      <c r="B45" t="n">
+        <v>66.640388</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.009164903647646439</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.2027964678160616</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>40850</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67.628593</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01482892026378946</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0330573172016748</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>40855</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67.22744</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.00593170702220569</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.1710148866628665</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>40856</v>
+      </c>
+      <c r="B48" t="n">
+        <v>65.896782</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.01979337603811782</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.3072719133099503</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>40862</v>
+      </c>
+      <c r="B49" t="n">
+        <v>65.769592</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.001930139775262463</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.1316803985596702</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>40869</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64.497635</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.01933959085529979</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.3028113090583043</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>40879</v>
+      </c>
+      <c r="B51" t="n">
+        <v>66.982834</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.03853162988069236</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2660495154839326</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>40906</v>
+      </c>
+      <c r="B52" t="n">
+        <v>43.936893</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.3440574192486391</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.494713073945669</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>40907</v>
       </c>
-      <c r="B42" t="n">
-        <v>65.29016900000001</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B53" t="n">
+        <v>44.115398</v>
+      </c>
+      <c r="C53" t="n">
         <v>4</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.4997643315617755</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4.398797028572171</v>
+      <c r="D53" t="n">
+        <v>0.00406275883003393</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.07277158000270008</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2418,10 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2027,10 +2434,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -2060,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0936585811581694</v>
+        <v>0.2165063509461096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -2095,10 +2502,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2086303939962478</v>
+        <v>0.0967032967032969</v>
       </c>
     </row>
     <row r="11">
@@ -2128,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2574,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.9102779573367807</v>
       </c>
     </row>
     <row r="16">
@@ -2183,10 +2590,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.7115384615384616</v>
       </c>
     </row>
     <row r="17">
@@ -2199,10 +2606,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.7782338143783927</v>
       </c>
     </row>
     <row r="19">
@@ -2217,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4573365600993119</v>
+        <v>-0.007971370192226712</v>
       </c>
     </row>
     <row r="22">
@@ -2243,10 +2650,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01267381899934752</v>
+        <v>0.01146594074721389</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1107326638166197</v>
+        <v>0.1017317738175435</v>
       </c>
     </row>
     <row r="24">
@@ -2259,10 +2666,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>51.26829268292683</v>
+        <v>66.38461538461539</v>
       </c>
       <c r="D24" t="n">
-        <v>14.77312059813429</v>
+        <v>17.06565810013</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2804,7 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2453,7 +2860,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2493,7 +2900,7 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -2517,7 +2924,7 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2557,7 +2964,7 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2605,7 +3012,7 @@
         <v>40582</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -2653,7 +3060,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -2661,7 +3068,7 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -2725,7 +3132,7 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -2781,7 +3188,7 @@
         <v>40604</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -2797,7 +3204,7 @@
         <v>40606</v>
       </c>
       <c r="B64" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65">
@@ -2805,7 +3212,7 @@
         <v>40607</v>
       </c>
       <c r="B65" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2829,7 +3236,7 @@
         <v>40610</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69">
@@ -2877,7 +3284,7 @@
         <v>40616</v>
       </c>
       <c r="B74" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3125,7 +3532,7 @@
         <v>40647</v>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3133,7 +3540,7 @@
         <v>40648</v>
       </c>
       <c r="B106" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3181,7 +3588,7 @@
         <v>40654</v>
       </c>
       <c r="B112" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3229,7 +3636,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
@@ -3237,7 +3644,7 @@
         <v>40661</v>
       </c>
       <c r="B119" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120">
@@ -3277,7 +3684,7 @@
         <v>40666</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125">
@@ -3293,7 +3700,7 @@
         <v>40668</v>
       </c>
       <c r="B126" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3357,7 +3764,7 @@
         <v>40676</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135">
@@ -3413,7 +3820,7 @@
         <v>40683</v>
       </c>
       <c r="B141" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3421,7 +3828,7 @@
         <v>40684</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143">
@@ -3517,7 +3924,7 @@
         <v>40696</v>
       </c>
       <c r="B154" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3557,7 +3964,7 @@
         <v>40701</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160">
@@ -3565,7 +3972,7 @@
         <v>40702</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161">
@@ -3573,7 +3980,7 @@
         <v>40703</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162">
@@ -3581,7 +3988,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163">
@@ -3605,7 +4012,7 @@
         <v>40707</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
@@ -3613,7 +4020,7 @@
         <v>40708</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167">
@@ -3669,7 +4076,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="174">
@@ -3693,7 +4100,7 @@
         <v>40718</v>
       </c>
       <c r="B176" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3717,7 +4124,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180">
@@ -3725,7 +4132,7 @@
         <v>40722</v>
       </c>
       <c r="B180" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3733,7 +4140,7 @@
         <v>40723</v>
       </c>
       <c r="B181" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3829,7 +4236,7 @@
         <v>40735</v>
       </c>
       <c r="B193" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194">
@@ -3853,7 +4260,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197">
@@ -3861,7 +4268,7 @@
         <v>40739</v>
       </c>
       <c r="B197" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3901,7 +4308,7 @@
         <v>40744</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203">
@@ -3957,7 +4364,7 @@
         <v>40751</v>
       </c>
       <c r="B209" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="210">
@@ -4061,7 +4468,7 @@
         <v>40764</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="223">
@@ -4077,7 +4484,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="225">
@@ -4141,7 +4548,7 @@
         <v>40774</v>
       </c>
       <c r="B232" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="233">
@@ -4149,7 +4556,7 @@
         <v>40775</v>
       </c>
       <c r="B233" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -4165,7 +4572,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="236">
@@ -4173,7 +4580,7 @@
         <v>40778</v>
       </c>
       <c r="B236" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4205,7 +4612,7 @@
         <v>40782</v>
       </c>
       <c r="B240" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -4229,7 +4636,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244">
@@ -4253,7 +4660,7 @@
         <v>40788</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247">
@@ -4293,7 +4700,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -4301,7 +4708,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253">
@@ -4333,7 +4740,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257">
@@ -4357,7 +4764,7 @@
         <v>40801</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260">
@@ -4365,7 +4772,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261">
@@ -4373,7 +4780,7 @@
         <v>40803</v>
       </c>
       <c r="B261" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262">
@@ -4381,7 +4788,7 @@
         <v>40804</v>
       </c>
       <c r="B262" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4405,7 +4812,7 @@
         <v>40807</v>
       </c>
       <c r="B265" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -4421,7 +4828,7 @@
         <v>40809</v>
       </c>
       <c r="B267" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -4453,7 +4860,7 @@
         <v>40813</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272">
@@ -4461,7 +4868,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273">
@@ -4557,7 +4964,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285">
@@ -4573,7 +4980,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4621,7 +5028,7 @@
         <v>40834</v>
       </c>
       <c r="B292" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -4645,7 +5052,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="296">
@@ -4669,7 +5076,7 @@
         <v>40840</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299">
@@ -4677,7 +5084,7 @@
         <v>40841</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300">
@@ -4693,7 +5100,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -4741,7 +5148,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="308">
@@ -4757,7 +5164,7 @@
         <v>40851</v>
       </c>
       <c r="B309" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4781,7 +5188,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="313">
@@ -4789,7 +5196,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
@@ -4821,7 +5228,7 @@
         <v>40859</v>
       </c>
       <c r="B317" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -4837,7 +5244,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="320">
@@ -4853,7 +5260,7 @@
         <v>40863</v>
       </c>
       <c r="B321" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -4893,7 +5300,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327">
@@ -4925,7 +5332,7 @@
         <v>40872</v>
       </c>
       <c r="B330" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4973,7 +5380,7 @@
         <v>40878</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337">
@@ -5093,7 +5500,7 @@
         <v>40893</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="352">
@@ -5133,7 +5540,7 @@
         <v>40898</v>
       </c>
       <c r="B356" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5149,7 +5556,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="359">
@@ -5189,7 +5596,7 @@
         <v>40905</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364">
@@ -5252,7 +5659,7 @@
         <v>40546</v>
       </c>
       <c r="B2" t="n">
-        <v>51.964043</v>
+        <v>32.523376</v>
       </c>
     </row>
     <row r="3">
@@ -5260,7 +5667,7 @@
         <v>40547</v>
       </c>
       <c r="B3" t="n">
-        <v>52.423904</v>
+        <v>32.811188</v>
       </c>
     </row>
     <row r="4">
@@ -5268,7 +5675,7 @@
         <v>40548</v>
       </c>
       <c r="B4" t="n">
-        <v>51.993393</v>
+        <v>32.541748</v>
       </c>
     </row>
     <row r="5">
@@ -5276,7 +5683,7 @@
         <v>40549</v>
       </c>
       <c r="B5" t="n">
-        <v>51.288929</v>
+        <v>32.100834</v>
       </c>
     </row>
     <row r="6">
@@ -5284,7 +5691,7 @@
         <v>40550</v>
       </c>
       <c r="B6" t="n">
-        <v>50.613819</v>
+        <v>31.678289</v>
       </c>
     </row>
     <row r="7">
@@ -5292,7 +5699,7 @@
         <v>40553</v>
       </c>
       <c r="B7" t="n">
-        <v>50.320293</v>
+        <v>31.494579</v>
       </c>
     </row>
     <row r="8">
@@ -5300,7 +5707,7 @@
         <v>40554</v>
       </c>
       <c r="B8" t="n">
-        <v>50.349644</v>
+        <v>31.512949</v>
       </c>
     </row>
     <row r="9">
@@ -5308,7 +5715,7 @@
         <v>40555</v>
       </c>
       <c r="B9" t="n">
-        <v>53.372971</v>
+        <v>33.405197</v>
       </c>
     </row>
     <row r="10">
@@ -5316,7 +5723,7 @@
         <v>40556</v>
       </c>
       <c r="B10" t="n">
-        <v>53.823044</v>
+        <v>33.686893</v>
       </c>
     </row>
     <row r="11">
@@ -5324,7 +5731,7 @@
         <v>40557</v>
       </c>
       <c r="B11" t="n">
-        <v>54.253551</v>
+        <v>33.956341</v>
       </c>
     </row>
     <row r="12">
@@ -5332,7 +5739,7 @@
         <v>40560</v>
       </c>
       <c r="B12" t="n">
-        <v>55.212406</v>
+        <v>34.556469</v>
       </c>
     </row>
     <row r="13">
@@ -5340,7 +5747,7 @@
         <v>40561</v>
       </c>
       <c r="B13" t="n">
-        <v>56.895294</v>
+        <v>35.609756</v>
       </c>
     </row>
     <row r="14">
@@ -5348,7 +5755,7 @@
         <v>40562</v>
       </c>
       <c r="B14" t="n">
-        <v>59.527252</v>
+        <v>37.257053</v>
       </c>
     </row>
     <row r="15">
@@ -5356,7 +5763,7 @@
         <v>40563</v>
       </c>
       <c r="B15" t="n">
-        <v>61.034023</v>
+        <v>38.200119</v>
       </c>
     </row>
     <row r="16">
@@ -5364,7 +5771,7 @@
         <v>40564</v>
       </c>
       <c r="B16" t="n">
-        <v>60.985104</v>
+        <v>38.835644</v>
       </c>
     </row>
     <row r="17">
@@ -5372,7 +5779,7 @@
         <v>40567</v>
       </c>
       <c r="B17" t="n">
-        <v>61.542805</v>
+        <v>39.190784</v>
       </c>
     </row>
     <row r="18">
@@ -5380,7 +5787,7 @@
         <v>40568</v>
       </c>
       <c r="B18" t="n">
-        <v>60.642654</v>
+        <v>38.617569</v>
       </c>
     </row>
     <row r="19">
@@ -5388,7 +5795,7 @@
         <v>40569</v>
       </c>
       <c r="B19" t="n">
-        <v>60.33934</v>
+        <v>38.424412</v>
       </c>
     </row>
     <row r="20">
@@ -5396,7 +5803,7 @@
         <v>40570</v>
       </c>
       <c r="B20" t="n">
-        <v>59.899052</v>
+        <v>38.144039</v>
       </c>
     </row>
     <row r="21">
@@ -5404,7 +5811,7 @@
         <v>40571</v>
       </c>
       <c r="B21" t="n">
-        <v>60.407833</v>
+        <v>38.468033</v>
       </c>
     </row>
     <row r="22">
@@ -5412,7 +5819,7 @@
         <v>40574</v>
       </c>
       <c r="B22" t="n">
-        <v>61.826546</v>
+        <v>39.371475</v>
       </c>
     </row>
     <row r="23">
@@ -5420,7 +5827,7 @@
         <v>40575</v>
       </c>
       <c r="B23" t="n">
-        <v>64.47807299999999</v>
+        <v>41.059986</v>
       </c>
     </row>
     <row r="24">
@@ -5428,7 +5835,7 @@
         <v>40576</v>
       </c>
       <c r="B24" t="n">
-        <v>66.552322</v>
+        <v>42.380875</v>
       </c>
     </row>
     <row r="25">
@@ -5436,7 +5843,7 @@
         <v>40577</v>
       </c>
       <c r="B25" t="n">
-        <v>64.047562</v>
+        <v>40.785831</v>
       </c>
     </row>
     <row r="26">
@@ -5444,7 +5851,7 @@
         <v>40578</v>
       </c>
       <c r="B26" t="n">
-        <v>65.84787</v>
+        <v>41.932274</v>
       </c>
     </row>
     <row r="27">
@@ -5452,7 +5859,7 @@
         <v>40581</v>
       </c>
       <c r="B27" t="n">
-        <v>67.83406100000001</v>
+        <v>43.19709</v>
       </c>
     </row>
     <row r="28">
@@ -5460,7 +5867,7 @@
         <v>40582</v>
       </c>
       <c r="B28" t="n">
-        <v>67.34485599999999</v>
+        <v>42.885559</v>
       </c>
     </row>
     <row r="29">
@@ -5468,7 +5875,7 @@
         <v>40583</v>
       </c>
       <c r="B29" t="n">
-        <v>66.894775</v>
+        <v>42.598953</v>
       </c>
     </row>
     <row r="30">
@@ -5476,7 +5883,7 @@
         <v>40584</v>
       </c>
       <c r="B30" t="n">
-        <v>65.86743199999999</v>
+        <v>41.944736</v>
       </c>
     </row>
     <row r="31">
@@ -5484,7 +5891,7 @@
         <v>40585</v>
       </c>
       <c r="B31" t="n">
-        <v>66.40557099999999</v>
+        <v>42.287418</v>
       </c>
     </row>
     <row r="32">
@@ -5492,7 +5899,7 @@
         <v>40588</v>
       </c>
       <c r="B32" t="n">
-        <v>66.53276099999999</v>
+        <v>42.368423</v>
       </c>
     </row>
     <row r="33">
@@ -5500,7 +5907,7 @@
         <v>40589</v>
       </c>
       <c r="B33" t="n">
-        <v>66.337082</v>
+        <v>42.243809</v>
       </c>
     </row>
     <row r="34">
@@ -5508,7 +5915,7 @@
         <v>40590</v>
       </c>
       <c r="B34" t="n">
-        <v>67.168739</v>
+        <v>42.773407</v>
       </c>
     </row>
     <row r="35">
@@ -5516,7 +5923,7 @@
         <v>40591</v>
       </c>
       <c r="B35" t="n">
-        <v>66.297943</v>
+        <v>42.218884</v>
       </c>
     </row>
     <row r="36">
@@ -5524,7 +5931,7 @@
         <v>40592</v>
       </c>
       <c r="B36" t="n">
-        <v>66.953484</v>
+        <v>42.636333</v>
       </c>
     </row>
     <row r="37">
@@ -5532,7 +5939,7 @@
         <v>40595</v>
       </c>
       <c r="B37" t="n">
-        <v>64.575912</v>
+        <v>41.122292</v>
       </c>
     </row>
     <row r="38">
@@ -5540,7 +5947,7 @@
         <v>40596</v>
       </c>
       <c r="B38" t="n">
-        <v>64.791168</v>
+        <v>41.259365</v>
       </c>
     </row>
     <row r="39">
@@ -5548,7 +5955,7 @@
         <v>40597</v>
       </c>
       <c r="B39" t="n">
-        <v>64.517212</v>
+        <v>41.084904</v>
       </c>
     </row>
     <row r="40">
@@ -5556,7 +5963,7 @@
         <v>40598</v>
       </c>
       <c r="B40" t="n">
-        <v>65.84787</v>
+        <v>41.932274</v>
       </c>
     </row>
     <row r="41">
@@ -5564,7 +5971,7 @@
         <v>40599</v>
       </c>
       <c r="B41" t="n">
-        <v>66.385994</v>
+        <v>42.274952</v>
       </c>
     </row>
     <row r="42">
@@ -5572,7 +5979,7 @@
         <v>40602</v>
       </c>
       <c r="B42" t="n">
-        <v>68.969032</v>
+        <v>43.919849</v>
       </c>
     </row>
     <row r="43">
@@ -5580,7 +5987,7 @@
         <v>40603</v>
       </c>
       <c r="B43" t="n">
-        <v>69.145149</v>
+        <v>44.03199</v>
       </c>
     </row>
     <row r="44">
@@ -5588,7 +5995,7 @@
         <v>40604</v>
       </c>
       <c r="B44" t="n">
-        <v>67.99060799999999</v>
+        <v>43.29678</v>
       </c>
     </row>
     <row r="45">
@@ -5596,7 +6003,7 @@
         <v>40605</v>
       </c>
       <c r="B45" t="n">
-        <v>68.029747</v>
+        <v>43.321709</v>
       </c>
     </row>
     <row r="46">
@@ -5604,7 +6011,7 @@
         <v>40606</v>
       </c>
       <c r="B46" t="n">
-        <v>67.31549800000001</v>
+        <v>42.866871</v>
       </c>
     </row>
     <row r="47">
@@ -5612,7 +6019,7 @@
         <v>40609</v>
       </c>
       <c r="B47" t="n">
-        <v>68.166725</v>
+        <v>43.408932</v>
       </c>
     </row>
     <row r="48">
@@ -5620,7 +6027,7 @@
         <v>40610</v>
       </c>
       <c r="B48" t="n">
-        <v>70.14314299999999</v>
+        <v>44.66753</v>
       </c>
     </row>
     <row r="49">
@@ -5628,7 +6035,7 @@
         <v>40611</v>
       </c>
       <c r="B49" t="n">
-        <v>72.53048699999999</v>
+        <v>46.187798</v>
       </c>
     </row>
     <row r="50">
@@ -5636,7 +6043,7 @@
         <v>40612</v>
       </c>
       <c r="B50" t="n">
-        <v>69.360405</v>
+        <v>44.169071</v>
       </c>
     </row>
     <row r="51">
@@ -5644,7 +6051,7 @@
         <v>40613</v>
       </c>
       <c r="B51" t="n">
-        <v>69.233208</v>
+        <v>44.088078</v>
       </c>
     </row>
     <row r="52">
@@ -5652,7 +6059,7 @@
         <v>40616</v>
       </c>
       <c r="B52" t="n">
-        <v>71.54228999999999</v>
+        <v>45.558517</v>
       </c>
     </row>
     <row r="53">
@@ -5660,7 +6067,7 @@
         <v>40617</v>
       </c>
       <c r="B53" t="n">
-        <v>72.92186</v>
+        <v>46.437035</v>
       </c>
     </row>
     <row r="54">
@@ -5668,7 +6075,7 @@
         <v>40618</v>
       </c>
       <c r="B54" t="n">
-        <v>72.892509</v>
+        <v>46.418331</v>
       </c>
     </row>
     <row r="55">
@@ -5676,7 +6083,7 @@
         <v>40619</v>
       </c>
       <c r="B55" t="n">
-        <v>72.47178599999999</v>
+        <v>46.150421</v>
       </c>
     </row>
     <row r="56">
@@ -5684,7 +6091,7 @@
         <v>40620</v>
       </c>
       <c r="B56" t="n">
-        <v>72.54027600000001</v>
+        <v>46.194035</v>
       </c>
     </row>
     <row r="57">
@@ -5692,7 +6099,7 @@
         <v>40623</v>
       </c>
       <c r="B57" t="n">
-        <v>74.72216</v>
+        <v>47.583481</v>
       </c>
     </row>
     <row r="58">
@@ -5700,7 +6107,7 @@
         <v>40624</v>
       </c>
       <c r="B58" t="n">
-        <v>74.007912</v>
+        <v>47.128639</v>
       </c>
     </row>
     <row r="59">
@@ -5708,7 +6115,7 @@
         <v>40625</v>
       </c>
       <c r="B59" t="n">
-        <v>75.56360599999999</v>
+        <v>48.119305</v>
       </c>
     </row>
     <row r="60">
@@ -5716,7 +6123,7 @@
         <v>40626</v>
       </c>
       <c r="B60" t="n">
-        <v>76.79641700000001</v>
+        <v>48.904369</v>
       </c>
     </row>
     <row r="61">
@@ -5724,7 +6131,7 @@
         <v>40627</v>
       </c>
       <c r="B61" t="n">
-        <v>75.935402</v>
+        <v>48.356071</v>
       </c>
     </row>
     <row r="62">
@@ -5732,7 +6139,7 @@
         <v>40630</v>
       </c>
       <c r="B62" t="n">
-        <v>77.24648999999999</v>
+        <v>49.190975</v>
       </c>
     </row>
     <row r="63">
@@ -5740,7 +6147,7 @@
         <v>40631</v>
       </c>
       <c r="B63" t="n">
-        <v>77.8629</v>
+        <v>49.583508</v>
       </c>
     </row>
     <row r="64">
@@ -5748,7 +6155,7 @@
         <v>40632</v>
       </c>
       <c r="B64" t="n">
-        <v>78.73369599999999</v>
+        <v>50.138039</v>
       </c>
     </row>
     <row r="65">
@@ -5756,7 +6163,7 @@
         <v>40633</v>
       </c>
       <c r="B65" t="n">
-        <v>75.025475</v>
+        <v>47.776623</v>
       </c>
     </row>
     <row r="66">
@@ -5764,7 +6171,7 @@
         <v>40634</v>
       </c>
       <c r="B66" t="n">
-        <v>75.544037</v>
+        <v>48.106846</v>
       </c>
     </row>
     <row r="67">
@@ -5772,7 +6179,7 @@
         <v>40637</v>
       </c>
       <c r="B67" t="n">
-        <v>75.876701</v>
+        <v>48.318695</v>
       </c>
     </row>
     <row r="68">
@@ -5780,7 +6187,7 @@
         <v>40638</v>
       </c>
       <c r="B68" t="n">
-        <v>74.947197</v>
+        <v>47.726772</v>
       </c>
     </row>
     <row r="69">
@@ -5788,7 +6195,7 @@
         <v>40639</v>
       </c>
       <c r="B69" t="n">
-        <v>76.375694</v>
+        <v>48.636452</v>
       </c>
     </row>
     <row r="70">
@@ -5796,7 +6203,7 @@
         <v>40640</v>
       </c>
       <c r="B70" t="n">
-        <v>75.76907300000001</v>
+        <v>48.250145</v>
       </c>
     </row>
     <row r="71">
@@ -5804,7 +6211,7 @@
         <v>40641</v>
       </c>
       <c r="B71" t="n">
-        <v>77.26606</v>
+        <v>49.203438</v>
       </c>
     </row>
     <row r="72">
@@ -5812,7 +6219,7 @@
         <v>40644</v>
       </c>
       <c r="B72" t="n">
-        <v>76.385475</v>
+        <v>48.642677</v>
       </c>
     </row>
     <row r="73">
@@ -5820,7 +6227,7 @@
         <v>40645</v>
       </c>
       <c r="B73" t="n">
-        <v>76.13108800000001</v>
+        <v>48.480682</v>
       </c>
     </row>
     <row r="74">
@@ -5828,7 +6235,7 @@
         <v>40646</v>
       </c>
       <c r="B74" t="n">
-        <v>75.866913</v>
+        <v>48.31245</v>
       </c>
     </row>
     <row r="75">
@@ -5836,7 +6243,7 @@
         <v>40647</v>
       </c>
       <c r="B75" t="n">
-        <v>74.497124</v>
+        <v>47.440166</v>
       </c>
     </row>
     <row r="76">
@@ -5844,7 +6251,7 @@
         <v>40648</v>
       </c>
       <c r="B76" t="n">
-        <v>73.675247</v>
+        <v>46.916786</v>
       </c>
     </row>
     <row r="77">
@@ -5852,7 +6259,7 @@
         <v>40651</v>
       </c>
       <c r="B77" t="n">
-        <v>71.385735</v>
+        <v>45.45882</v>
       </c>
     </row>
     <row r="78">
@@ -5860,7 +6267,7 @@
         <v>40652</v>
       </c>
       <c r="B78" t="n">
-        <v>72.051064</v>
+        <v>45.882504</v>
       </c>
     </row>
     <row r="79">
@@ -5868,7 +6275,7 @@
         <v>40653</v>
       </c>
       <c r="B79" t="n">
-        <v>73.411072</v>
+        <v>46.748558</v>
       </c>
     </row>
     <row r="80">
@@ -5876,7 +6283,7 @@
         <v>40654</v>
       </c>
       <c r="B80" t="n">
-        <v>74.96676600000001</v>
+        <v>47.739235</v>
       </c>
     </row>
     <row r="81">
@@ -5884,7 +6291,7 @@
         <v>40659</v>
       </c>
       <c r="B81" t="n">
-        <v>75.33857</v>
+        <v>47.976002</v>
       </c>
     </row>
     <row r="82">
@@ -5892,7 +6299,7 @@
         <v>40660</v>
       </c>
       <c r="B82" t="n">
-        <v>75.387489</v>
+        <v>48.007156</v>
       </c>
     </row>
     <row r="83">
@@ -5900,7 +6307,7 @@
         <v>40661</v>
       </c>
       <c r="B83" t="n">
-        <v>76.58116099999999</v>
+        <v>48.7673</v>
       </c>
     </row>
     <row r="84">
@@ -5908,7 +6315,7 @@
         <v>40662</v>
       </c>
       <c r="B84" t="n">
-        <v>76.845337</v>
+        <v>48.935524</v>
       </c>
     </row>
     <row r="85">
@@ -5916,7 +6323,7 @@
         <v>40665</v>
       </c>
       <c r="B85" t="n">
-        <v>76.02346</v>
+        <v>48.412144</v>
       </c>
     </row>
     <row r="86">
@@ -5924,7 +6331,7 @@
         <v>40666</v>
       </c>
       <c r="B86" t="n">
-        <v>75.778854</v>
+        <v>48.256382</v>
       </c>
     </row>
     <row r="87">
@@ -5932,7 +6339,7 @@
         <v>40667</v>
       </c>
       <c r="B87" t="n">
-        <v>74.53626300000001</v>
+        <v>47.465088</v>
       </c>
     </row>
     <row r="88">
@@ -5940,7 +6347,7 @@
         <v>40668</v>
       </c>
       <c r="B88" t="n">
-        <v>74.262306</v>
+        <v>47.29063</v>
       </c>
     </row>
     <row r="89">
@@ -5948,7 +6355,7 @@
         <v>40669</v>
       </c>
       <c r="B89" t="n">
-        <v>73.86114499999999</v>
+        <v>47.035175</v>
       </c>
     </row>
     <row r="90">
@@ -5956,7 +6363,7 @@
         <v>40672</v>
       </c>
       <c r="B90" t="n">
-        <v>73.381721</v>
+        <v>46.729862</v>
       </c>
     </row>
     <row r="91">
@@ -5964,7 +6371,7 @@
         <v>40673</v>
       </c>
       <c r="B91" t="n">
-        <v>73.65567799999999</v>
+        <v>46.904327</v>
       </c>
     </row>
     <row r="92">
@@ -5972,7 +6379,7 @@
         <v>40674</v>
       </c>
       <c r="B92" t="n">
-        <v>73.5187</v>
+        <v>46.817093</v>
       </c>
     </row>
     <row r="93">
@@ -5980,7 +6387,7 @@
         <v>40675</v>
       </c>
       <c r="B93" t="n">
-        <v>75.26029200000001</v>
+        <v>47.926155</v>
       </c>
     </row>
     <row r="94">
@@ -5988,7 +6395,7 @@
         <v>40676</v>
       </c>
       <c r="B94" t="n">
-        <v>73.704605</v>
+        <v>46.935482</v>
       </c>
     </row>
     <row r="95">
@@ -5996,7 +6403,7 @@
         <v>40679</v>
       </c>
       <c r="B95" t="n">
-        <v>75.162453</v>
+        <v>47.863853</v>
       </c>
     </row>
     <row r="96">
@@ -6004,7 +6411,7 @@
         <v>40680</v>
       </c>
       <c r="B96" t="n">
-        <v>72.931648</v>
+        <v>46.44326</v>
       </c>
     </row>
     <row r="97">
@@ -6012,7 +6419,7 @@
         <v>40681</v>
       </c>
       <c r="B97" t="n">
-        <v>72.432648</v>
+        <v>46.1255</v>
       </c>
     </row>
     <row r="98">
@@ -6020,7 +6427,7 @@
         <v>40682</v>
       </c>
       <c r="B98" t="n">
-        <v>73.000137</v>
+        <v>46.486877</v>
       </c>
     </row>
     <row r="99">
@@ -6028,7 +6435,7 @@
         <v>40683</v>
       </c>
       <c r="B99" t="n">
-        <v>71.777107</v>
+        <v>45.708042</v>
       </c>
     </row>
     <row r="100">
@@ -6036,7 +6443,7 @@
         <v>40686</v>
       </c>
       <c r="B100" t="n">
-        <v>70.387749</v>
+        <v>44.823288</v>
       </c>
     </row>
     <row r="101">
@@ -6044,7 +6451,7 @@
         <v>40687</v>
       </c>
       <c r="B101" t="n">
-        <v>70.906311</v>
+        <v>45.153515</v>
       </c>
     </row>
     <row r="102">
@@ -6052,7 +6459,7 @@
         <v>40688</v>
       </c>
       <c r="B102" t="n">
-        <v>70.75954400000001</v>
+        <v>45.060062</v>
       </c>
     </row>
     <row r="103">
@@ -6060,7 +6467,7 @@
         <v>40689</v>
       </c>
       <c r="B103" t="n">
-        <v>71.51293200000001</v>
+        <v>45.539822</v>
       </c>
     </row>
     <row r="104">
@@ -6068,7 +6475,7 @@
         <v>40690</v>
       </c>
       <c r="B104" t="n">
-        <v>71.62056</v>
+        <v>45.608345</v>
       </c>
     </row>
     <row r="105">
@@ -6076,7 +6483,7 @@
         <v>40693</v>
       </c>
       <c r="B105" t="n">
-        <v>71.972786</v>
+        <v>45.832661</v>
       </c>
     </row>
     <row r="106">
@@ -6084,7 +6491,7 @@
         <v>40694</v>
       </c>
       <c r="B106" t="n">
-        <v>73.73395499999999</v>
+        <v>46.954185</v>
       </c>
     </row>
     <row r="107">
@@ -6092,7 +6499,7 @@
         <v>40695</v>
       </c>
       <c r="B107" t="n">
-        <v>73.411072</v>
+        <v>46.748558</v>
       </c>
     </row>
     <row r="108">
@@ -6100,7 +6507,7 @@
         <v>40696</v>
       </c>
       <c r="B108" t="n">
-        <v>73.019699</v>
+        <v>46.499332</v>
       </c>
     </row>
     <row r="109">
@@ -6108,7 +6515,7 @@
         <v>40697</v>
       </c>
       <c r="B109" t="n">
-        <v>73.35237100000001</v>
+        <v>46.711182</v>
       </c>
     </row>
     <row r="110">
@@ -6116,7 +6523,7 @@
         <v>40700</v>
       </c>
       <c r="B110" t="n">
-        <v>72.46199799999999</v>
+        <v>46.144188</v>
       </c>
     </row>
     <row r="111">
@@ -6124,7 +6531,7 @@
         <v>40701</v>
       </c>
       <c r="B111" t="n">
-        <v>71.855385</v>
+        <v>45.757889</v>
       </c>
     </row>
     <row r="112">
@@ -6132,7 +6539,7 @@
         <v>40702</v>
       </c>
       <c r="B112" t="n">
-        <v>70.31926</v>
+        <v>44.779682</v>
       </c>
     </row>
     <row r="113">
@@ -6140,7 +6547,7 @@
         <v>40703</v>
       </c>
       <c r="B113" t="n">
-        <v>71.42487300000001</v>
+        <v>45.483734</v>
       </c>
     </row>
     <row r="114">
@@ -6148,7 +6555,7 @@
         <v>40704</v>
       </c>
       <c r="B114" t="n">
-        <v>70.40731</v>
+        <v>44.835758</v>
       </c>
     </row>
     <row r="115">
@@ -6156,7 +6563,7 @@
         <v>40707</v>
       </c>
       <c r="B115" t="n">
-        <v>70.34860999999999</v>
+        <v>44.79837</v>
       </c>
     </row>
     <row r="116">
@@ -6164,7 +6571,7 @@
         <v>40708</v>
       </c>
       <c r="B116" t="n">
-        <v>72.55006400000001</v>
+        <v>46.200264</v>
       </c>
     </row>
     <row r="117">
@@ -6172,7 +6579,7 @@
         <v>40709</v>
       </c>
       <c r="B117" t="n">
-        <v>71.395523</v>
+        <v>45.465054</v>
       </c>
     </row>
     <row r="118">
@@ -6180,7 +6587,7 @@
         <v>40710</v>
       </c>
       <c r="B118" t="n">
-        <v>70.368179</v>
+        <v>44.810829</v>
       </c>
     </row>
     <row r="119">
@@ -6188,7 +6595,7 @@
         <v>40711</v>
       </c>
       <c r="B119" t="n">
-        <v>71.248756</v>
+        <v>45.37159</v>
       </c>
     </row>
     <row r="120">
@@ -6196,7 +6603,7 @@
         <v>40714</v>
       </c>
       <c r="B120" t="n">
-        <v>69.61479199999999</v>
+        <v>44.331074</v>
       </c>
     </row>
     <row r="121">
@@ -6204,7 +6611,7 @@
         <v>40715</v>
       </c>
       <c r="B121" t="n">
-        <v>71.35638400000001</v>
+        <v>45.440125</v>
       </c>
     </row>
     <row r="122">
@@ -6212,7 +6619,7 @@
         <v>40716</v>
       </c>
       <c r="B122" t="n">
-        <v>71.689049</v>
+        <v>45.651966</v>
       </c>
     </row>
     <row r="123">
@@ -6220,7 +6627,7 @@
         <v>40717</v>
       </c>
       <c r="B123" t="n">
-        <v>68.43090100000001</v>
+        <v>43.577168</v>
       </c>
     </row>
     <row r="124">
@@ -6228,7 +6635,7 @@
         <v>40718</v>
       </c>
       <c r="B124" t="n">
-        <v>66.787155</v>
+        <v>42.530422</v>
       </c>
     </row>
     <row r="125">
@@ -6236,7 +6643,7 @@
         <v>40721</v>
       </c>
       <c r="B125" t="n">
-        <v>66.924133</v>
+        <v>42.617649</v>
       </c>
     </row>
     <row r="126">
@@ -6244,7 +6651,7 @@
         <v>40722</v>
       </c>
       <c r="B126" t="n">
-        <v>66.72843899999999</v>
+        <v>42.493023</v>
       </c>
     </row>
     <row r="127">
@@ -6252,7 +6659,7 @@
         <v>40723</v>
       </c>
       <c r="B127" t="n">
-        <v>69.04731</v>
+        <v>43.969696</v>
       </c>
     </row>
     <row r="128">
@@ -6260,7 +6667,7 @@
         <v>40725</v>
       </c>
       <c r="B128" t="n">
-        <v>45.91988</v>
+        <v>72.109764</v>
       </c>
     </row>
     <row r="129">
@@ -6268,7 +6675,7 @@
         <v>40728</v>
       </c>
       <c r="B129" t="n">
-        <v>45.726738</v>
+        <v>71.80645800000001</v>
       </c>
     </row>
     <row r="130">
@@ -6276,7 +6683,7 @@
         <v>40729</v>
       </c>
       <c r="B130" t="n">
-        <v>45.427666</v>
+        <v>71.336823</v>
       </c>
     </row>
     <row r="131">
@@ -6284,7 +6691,7 @@
         <v>40730</v>
       </c>
       <c r="B131" t="n">
-        <v>45.253204</v>
+        <v>71.062859</v>
       </c>
     </row>
     <row r="132">
@@ -6292,7 +6699,7 @@
         <v>40731</v>
       </c>
       <c r="B132" t="n">
-        <v>45.477512</v>
+        <v>71.415085</v>
       </c>
     </row>
     <row r="133">
@@ -6300,7 +6707,7 @@
         <v>40732</v>
       </c>
       <c r="B133" t="n">
-        <v>43.863781</v>
+        <v>68.88097399999999</v>
       </c>
     </row>
     <row r="134">
@@ -6308,7 +6715,7 @@
         <v>40735</v>
       </c>
       <c r="B134" t="n">
-        <v>42.598953</v>
+        <v>66.894775</v>
       </c>
     </row>
     <row r="135">
@@ -6316,7 +6723,7 @@
         <v>40736</v>
       </c>
       <c r="B135" t="n">
-        <v>41.901123</v>
+        <v>65.79894299999999</v>
       </c>
     </row>
     <row r="136">
@@ -6324,7 +6731,7 @@
         <v>40737</v>
       </c>
       <c r="B136" t="n">
-        <v>42.623871</v>
+        <v>66.933914</v>
       </c>
     </row>
     <row r="137">
@@ -6332,7 +6739,7 @@
         <v>40738</v>
       </c>
       <c r="B137" t="n">
-        <v>41.801426</v>
+        <v>65.64239499999999</v>
       </c>
     </row>
     <row r="138">
@@ -6340,7 +6747,7 @@
         <v>40739</v>
       </c>
       <c r="B138" t="n">
-        <v>41.60828</v>
+        <v>65.33908099999999</v>
       </c>
     </row>
     <row r="139">
@@ -6348,7 +6755,7 @@
         <v>40742</v>
       </c>
       <c r="B139" t="n">
-        <v>41.383968</v>
+        <v>64.986847</v>
       </c>
     </row>
     <row r="140">
@@ -6356,7 +6763,7 @@
         <v>40743</v>
       </c>
       <c r="B140" t="n">
-        <v>42.611412</v>
+        <v>66.914345</v>
       </c>
     </row>
     <row r="141">
@@ -6364,7 +6771,7 @@
         <v>40744</v>
       </c>
       <c r="B141" t="n">
-        <v>43.558468</v>
+        <v>68.40155</v>
       </c>
     </row>
     <row r="142">
@@ -6372,7 +6779,7 @@
         <v>40745</v>
       </c>
       <c r="B142" t="n">
-        <v>44.225155</v>
+        <v>69.448463</v>
       </c>
     </row>
     <row r="143">
@@ -6380,7 +6787,7 @@
         <v>40746</v>
       </c>
       <c r="B143" t="n">
-        <v>44.792137</v>
+        <v>70.338821</v>
       </c>
     </row>
     <row r="144">
@@ -6388,7 +6795,7 @@
         <v>40749</v>
       </c>
       <c r="B144" t="n">
-        <v>44.542084</v>
+        <v>67.971046</v>
       </c>
     </row>
     <row r="145">
@@ -6396,7 +6803,7 @@
         <v>40750</v>
       </c>
       <c r="B145" t="n">
-        <v>45.64254</v>
+        <v>67.55032300000001</v>
       </c>
     </row>
     <row r="146">
@@ -6404,7 +6811,7 @@
         <v>40751</v>
       </c>
       <c r="B146" t="n">
-        <v>46.349918</v>
+        <v>68.59723700000001</v>
       </c>
     </row>
     <row r="147">
@@ -6412,7 +6819,7 @@
         <v>40752</v>
       </c>
       <c r="B147" t="n">
-        <v>46.964745</v>
+        <v>69.507164</v>
       </c>
     </row>
     <row r="148">
@@ -6420,7 +6827,7 @@
         <v>40753</v>
       </c>
       <c r="B148" t="n">
-        <v>47.777905</v>
+        <v>70.71062499999999</v>
       </c>
     </row>
     <row r="149">
@@ -6428,7 +6835,7 @@
         <v>40756</v>
       </c>
       <c r="B149" t="n">
-        <v>44.637669</v>
+        <v>66.06310999999999</v>
       </c>
     </row>
     <row r="150">
@@ -6436,7 +6843,7 @@
         <v>40757</v>
       </c>
       <c r="B150" t="n">
-        <v>43.612953</v>
+        <v>64.54656199999999</v>
       </c>
     </row>
     <row r="151">
@@ -6444,7 +6851,7 @@
         <v>40758</v>
       </c>
       <c r="B151" t="n">
-        <v>43.487335</v>
+        <v>64.360657</v>
       </c>
     </row>
     <row r="152">
@@ -6452,7 +6859,7 @@
         <v>40759</v>
       </c>
       <c r="B152" t="n">
-        <v>41.464367</v>
+        <v>61.366688</v>
       </c>
     </row>
     <row r="153">
@@ -6460,7 +6867,7 @@
         <v>40760</v>
       </c>
       <c r="B153" t="n">
-        <v>41.510651</v>
+        <v>61.435177</v>
       </c>
     </row>
     <row r="154">
@@ -6468,7 +6875,7 @@
         <v>40763</v>
       </c>
       <c r="B154" t="n">
-        <v>40.314049</v>
+        <v>59.66423</v>
       </c>
     </row>
     <row r="155">
@@ -6476,7 +6883,7 @@
         <v>40764</v>
       </c>
       <c r="B155" t="n">
-        <v>40.181839</v>
+        <v>59.468544</v>
       </c>
     </row>
     <row r="156">
@@ -6484,7 +6891,7 @@
         <v>40765</v>
       </c>
       <c r="B156" t="n">
-        <v>37.92086</v>
+        <v>56.122341</v>
       </c>
     </row>
     <row r="157">
@@ -6492,7 +6899,7 @@
         <v>40766</v>
       </c>
       <c r="B157" t="n">
-        <v>39.520733</v>
+        <v>58.490124</v>
       </c>
     </row>
     <row r="158">
@@ -6500,7 +6907,7 @@
         <v>40767</v>
       </c>
       <c r="B158" t="n">
-        <v>40.783432</v>
+        <v>60.35891</v>
       </c>
     </row>
     <row r="159">
@@ -6508,7 +6915,7 @@
         <v>40770</v>
       </c>
       <c r="B159" t="n">
-        <v>40.882595</v>
+        <v>60.505676</v>
       </c>
     </row>
     <row r="160">
@@ -6516,7 +6923,7 @@
         <v>40771</v>
       </c>
       <c r="B160" t="n">
-        <v>40.849548</v>
+        <v>60.456753</v>
       </c>
     </row>
     <row r="161">
@@ -6524,7 +6931,7 @@
         <v>40772</v>
       </c>
       <c r="B161" t="n">
-        <v>41.04126</v>
+        <v>60.740498</v>
       </c>
     </row>
     <row r="162">
@@ -6532,7 +6939,7 @@
         <v>40773</v>
       </c>
       <c r="B162" t="n">
-        <v>39.243065</v>
+        <v>58.079185</v>
       </c>
     </row>
     <row r="163">
@@ -6540,7 +6947,7 @@
         <v>40774</v>
       </c>
       <c r="B163" t="n">
-        <v>39.60006</v>
+        <v>58.607536</v>
       </c>
     </row>
     <row r="164">
@@ -6548,7 +6955,7 @@
         <v>40777</v>
       </c>
       <c r="B164" t="n">
-        <v>40.697491</v>
+        <v>60.231716</v>
       </c>
     </row>
     <row r="165">
@@ -6556,7 +6963,7 @@
         <v>40778</v>
       </c>
       <c r="B165" t="n">
-        <v>40.5256</v>
+        <v>59.977325</v>
       </c>
     </row>
     <row r="166">
@@ -6564,7 +6971,7 @@
         <v>40779</v>
       </c>
       <c r="B166" t="n">
-        <v>41.312321</v>
+        <v>61.141651</v>
       </c>
     </row>
     <row r="167">
@@ -6572,7 +6979,7 @@
         <v>40780</v>
       </c>
       <c r="B167" t="n">
-        <v>41.556919</v>
+        <v>61.503666</v>
       </c>
     </row>
     <row r="168">
@@ -6580,7 +6987,7 @@
         <v>40781</v>
       </c>
       <c r="B168" t="n">
-        <v>40.730549</v>
+        <v>60.28064</v>
       </c>
     </row>
     <row r="169">
@@ -6588,7 +6995,7 @@
         <v>40784</v>
       </c>
       <c r="B169" t="n">
-        <v>41.7817</v>
+        <v>61.83633</v>
       </c>
     </row>
     <row r="170">
@@ -6596,7 +7003,7 @@
         <v>40785</v>
       </c>
       <c r="B170" t="n">
-        <v>41.993248</v>
+        <v>62.149426</v>
       </c>
     </row>
     <row r="171">
@@ -6604,7 +7011,7 @@
         <v>40786</v>
       </c>
       <c r="B171" t="n">
-        <v>43.14357</v>
+        <v>63.851883</v>
       </c>
     </row>
     <row r="172">
@@ -6612,7 +7019,7 @@
         <v>40787</v>
       </c>
       <c r="B172" t="n">
-        <v>42.746914</v>
+        <v>63.264832</v>
       </c>
     </row>
     <row r="173">
@@ -6620,7 +7027,7 @@
         <v>40788</v>
       </c>
       <c r="B173" t="n">
-        <v>41.457756</v>
+        <v>61.356903</v>
       </c>
     </row>
     <row r="174">
@@ -6628,7 +7035,7 @@
         <v>40791</v>
       </c>
       <c r="B174" t="n">
-        <v>39.388504</v>
+        <v>58.294441</v>
       </c>
     </row>
     <row r="175">
@@ -6636,7 +7043,7 @@
         <v>40792</v>
       </c>
       <c r="B175" t="n">
-        <v>39.60006</v>
+        <v>58.607536</v>
       </c>
     </row>
     <row r="176">
@@ -6644,7 +7051,7 @@
         <v>40793</v>
       </c>
       <c r="B176" t="n">
-        <v>40.902431</v>
+        <v>60.535027</v>
       </c>
     </row>
     <row r="177">
@@ -6652,7 +7059,7 @@
         <v>40794</v>
       </c>
       <c r="B177" t="n">
-        <v>41.940357</v>
+        <v>62.071152</v>
       </c>
     </row>
     <row r="178">
@@ -6660,7 +7067,7 @@
         <v>40795</v>
       </c>
       <c r="B178" t="n">
-        <v>40.426437</v>
+        <v>59.830563</v>
       </c>
     </row>
     <row r="179">
@@ -6668,7 +7075,7 @@
         <v>40798</v>
       </c>
       <c r="B179" t="n">
-        <v>39.110844</v>
+        <v>57.883499</v>
       </c>
     </row>
     <row r="180">
@@ -6676,7 +7083,7 @@
         <v>40799</v>
       </c>
       <c r="B180" t="n">
-        <v>39.732285</v>
+        <v>58.803219</v>
       </c>
     </row>
     <row r="181">
@@ -6684,7 +7091,7 @@
         <v>40800</v>
       </c>
       <c r="B181" t="n">
-        <v>40.93549</v>
+        <v>60.583946</v>
       </c>
     </row>
     <row r="182">
@@ -6692,7 +7099,7 @@
         <v>40801</v>
       </c>
       <c r="B182" t="n">
-        <v>42.125473</v>
+        <v>62.345112</v>
       </c>
     </row>
     <row r="183">
@@ -6700,7 +7107,7 @@
         <v>40802</v>
       </c>
       <c r="B183" t="n">
-        <v>42.799793</v>
+        <v>63.343098</v>
       </c>
     </row>
     <row r="184">
@@ -6708,7 +7115,7 @@
         <v>40805</v>
       </c>
       <c r="B184" t="n">
-        <v>41.960194</v>
+        <v>62.100506</v>
       </c>
     </row>
     <row r="185">
@@ -6716,7 +7123,7 @@
         <v>40806</v>
       </c>
       <c r="B185" t="n">
-        <v>41.708977</v>
+        <v>61.728703</v>
       </c>
     </row>
     <row r="186">
@@ -6724,7 +7131,7 @@
         <v>40807</v>
       </c>
       <c r="B186" t="n">
-        <v>41.292484</v>
+        <v>61.112297</v>
       </c>
     </row>
     <row r="187">
@@ -6732,7 +7139,7 @@
         <v>40808</v>
       </c>
       <c r="B187" t="n">
-        <v>39.401722</v>
+        <v>58.314007</v>
       </c>
     </row>
     <row r="188">
@@ -6740,7 +7147,7 @@
         <v>40809</v>
       </c>
       <c r="B188" t="n">
-        <v>39.362068</v>
+        <v>58.255302</v>
       </c>
     </row>
     <row r="189">
@@ -6748,7 +7155,7 @@
         <v>40812</v>
       </c>
       <c r="B189" t="n">
-        <v>40.737152</v>
+        <v>60.290421</v>
       </c>
     </row>
     <row r="190">
@@ -6756,7 +7163,7 @@
         <v>40813</v>
       </c>
       <c r="B190" t="n">
-        <v>42.165138</v>
+        <v>62.403812</v>
       </c>
     </row>
     <row r="191">
@@ -6764,7 +7171,7 @@
         <v>40814</v>
       </c>
       <c r="B191" t="n">
-        <v>42.581638</v>
+        <v>63.020226</v>
       </c>
     </row>
     <row r="192">
@@ -6772,7 +7179,7 @@
         <v>40815</v>
       </c>
       <c r="B192" t="n">
-        <v>42.634521</v>
+        <v>63.098492</v>
       </c>
     </row>
     <row r="193">
@@ -6780,7 +7187,7 @@
         <v>40816</v>
       </c>
       <c r="B193" t="n">
-        <v>42.079201</v>
+        <v>62.276623</v>
       </c>
     </row>
     <row r="194">
@@ -6788,7 +7195,7 @@
         <v>40819</v>
       </c>
       <c r="B194" t="n">
-        <v>41.325542</v>
+        <v>61.161217</v>
       </c>
     </row>
     <row r="195">
@@ -6796,7 +7203,7 @@
         <v>40820</v>
       </c>
       <c r="B195" t="n">
-        <v>39.249676</v>
+        <v>58.08897</v>
       </c>
     </row>
     <row r="196">
@@ -6804,7 +7211,7 @@
         <v>40821</v>
       </c>
       <c r="B196" t="n">
-        <v>41.166878</v>
+        <v>60.926395</v>
       </c>
     </row>
     <row r="197">
@@ -6812,7 +7219,7 @@
         <v>40822</v>
       </c>
       <c r="B197" t="n">
-        <v>42.746914</v>
+        <v>63.264832</v>
       </c>
     </row>
     <row r="198">
@@ -6820,7 +7227,7 @@
         <v>40823</v>
       </c>
       <c r="B198" t="n">
-        <v>42.958462</v>
+        <v>63.577927</v>
       </c>
     </row>
     <row r="199">
@@ -6828,7 +7235,7 @@
         <v>40826</v>
       </c>
       <c r="B199" t="n">
-        <v>43.930283</v>
+        <v>65.016205</v>
       </c>
     </row>
     <row r="200">
@@ -6836,7 +7243,7 @@
         <v>40827</v>
       </c>
       <c r="B200" t="n">
-        <v>43.712116</v>
+        <v>64.69332900000001</v>
       </c>
     </row>
     <row r="201">
@@ -6844,7 +7251,7 @@
         <v>40828</v>
       </c>
       <c r="B201" t="n">
-        <v>45.371479</v>
+        <v>67.149162</v>
       </c>
     </row>
     <row r="202">
@@ -6852,7 +7259,7 @@
         <v>40829</v>
       </c>
       <c r="B202" t="n">
-        <v>44.8955</v>
+        <v>66.44470200000001</v>
       </c>
     </row>
     <row r="203">
@@ -6860,7 +7267,7 @@
         <v>40830</v>
       </c>
       <c r="B203" t="n">
-        <v>45.880535</v>
+        <v>67.90255000000001</v>
       </c>
     </row>
     <row r="204">
@@ -6868,7 +7275,7 @@
         <v>40833</v>
       </c>
       <c r="B204" t="n">
-        <v>45.054157</v>
+        <v>66.67952699999999</v>
       </c>
     </row>
     <row r="205">
@@ -6876,7 +7283,7 @@
         <v>40834</v>
       </c>
       <c r="B205" t="n">
-        <v>46.039207</v>
+        <v>68.13737500000001</v>
       </c>
     </row>
     <row r="206">
@@ -6884,7 +7291,7 @@
         <v>40835</v>
       </c>
       <c r="B206" t="n">
-        <v>45.616096</v>
+        <v>67.511185</v>
       </c>
     </row>
     <row r="207">
@@ -6892,7 +7299,7 @@
         <v>40836</v>
       </c>
       <c r="B207" t="n">
-        <v>43.963341</v>
+        <v>65.06512499999999</v>
       </c>
     </row>
     <row r="208">
@@ -6900,7 +7307,7 @@
         <v>40837</v>
       </c>
       <c r="B208" t="n">
-        <v>45.067383</v>
+        <v>66.699089</v>
       </c>
     </row>
     <row r="209">
@@ -6908,7 +7315,7 @@
         <v>40840</v>
       </c>
       <c r="B209" t="n">
-        <v>45.741703</v>
+        <v>67.69708300000001</v>
       </c>
     </row>
     <row r="210">
@@ -6916,7 +7323,7 @@
         <v>40841</v>
       </c>
       <c r="B210" t="n">
-        <v>45.44421</v>
+        <v>67.25679</v>
       </c>
     </row>
     <row r="211">
@@ -6924,7 +7331,7 @@
         <v>40842</v>
       </c>
       <c r="B211" t="n">
-        <v>45.027721</v>
+        <v>66.640388</v>
       </c>
     </row>
     <row r="212">
@@ -6932,7 +7339,7 @@
         <v>40843</v>
       </c>
       <c r="B212" t="n">
-        <v>47.096962</v>
+        <v>69.70285</v>
       </c>
     </row>
     <row r="213">
@@ -6940,7 +7347,7 @@
         <v>40844</v>
       </c>
       <c r="B213" t="n">
-        <v>46.792858</v>
+        <v>69.25277699999999</v>
       </c>
     </row>
     <row r="214">
@@ -6948,7 +7355,7 @@
         <v>40847</v>
       </c>
       <c r="B214" t="n">
-        <v>45.371479</v>
+        <v>67.149162</v>
       </c>
     </row>
     <row r="215">
@@ -6956,7 +7363,7 @@
         <v>40848</v>
       </c>
       <c r="B215" t="n">
-        <v>43.566673</v>
+        <v>64.47807299999999</v>
       </c>
     </row>
     <row r="216">
@@ -6964,7 +7371,7 @@
         <v>40849</v>
       </c>
       <c r="B216" t="n">
-        <v>44.492226</v>
+        <v>65.84787</v>
       </c>
     </row>
     <row r="217">
@@ -6972,7 +7379,7 @@
         <v>40850</v>
       </c>
       <c r="B217" t="n">
-        <v>45.695431</v>
+        <v>67.628593</v>
       </c>
     </row>
     <row r="218">
@@ -6980,7 +7387,7 @@
         <v>40851</v>
       </c>
       <c r="B218" t="n">
-        <v>45.007889</v>
+        <v>66.61103799999999</v>
       </c>
     </row>
     <row r="219">
@@ -6988,7 +7395,7 @@
         <v>40854</v>
       </c>
       <c r="B219" t="n">
-        <v>45.682198</v>
+        <v>67.60902400000001</v>
       </c>
     </row>
     <row r="220">
@@ -6996,7 +7403,7 @@
         <v>40855</v>
       </c>
       <c r="B220" t="n">
-        <v>45.424374</v>
+        <v>67.22744</v>
       </c>
     </row>
     <row r="221">
@@ -7004,7 +7411,7 @@
         <v>40856</v>
       </c>
       <c r="B221" t="n">
-        <v>44.52528</v>
+        <v>65.896782</v>
       </c>
     </row>
     <row r="222">
@@ -7012,7 +7419,7 @@
         <v>40857</v>
       </c>
       <c r="B222" t="n">
-        <v>44.551716</v>
+        <v>65.93592099999999</v>
       </c>
     </row>
     <row r="223">
@@ -7020,7 +7427,7 @@
         <v>40858</v>
       </c>
       <c r="B223" t="n">
-        <v>46.442474</v>
+        <v>68.73421500000001</v>
       </c>
     </row>
     <row r="224">
@@ -7028,7 +7435,7 @@
         <v>40861</v>
       </c>
       <c r="B224" t="n">
-        <v>45.060768</v>
+        <v>66.689308</v>
       </c>
     </row>
     <row r="225">
@@ -7036,7 +7443,7 @@
         <v>40862</v>
       </c>
       <c r="B225" t="n">
-        <v>44.439339</v>
+        <v>65.769592</v>
       </c>
     </row>
     <row r="226">
@@ -7044,7 +7451,7 @@
         <v>40863</v>
       </c>
       <c r="B226" t="n">
-        <v>44.683941</v>
+        <v>66.13159899999999</v>
       </c>
     </row>
     <row r="227">
@@ -7052,7 +7459,7 @@
         <v>40864</v>
       </c>
       <c r="B227" t="n">
-        <v>45.285549</v>
+        <v>67.021973</v>
       </c>
     </row>
     <row r="228">
@@ -7060,7 +7467,7 @@
         <v>40865</v>
       </c>
       <c r="B228" t="n">
-        <v>44.928547</v>
+        <v>66.493622</v>
       </c>
     </row>
     <row r="229">
@@ -7068,7 +7475,7 @@
         <v>40868</v>
       </c>
       <c r="B229" t="n">
-        <v>43.698895</v>
+        <v>64.67375199999999</v>
       </c>
     </row>
     <row r="230">
@@ -7076,7 +7483,7 @@
         <v>40869</v>
       </c>
       <c r="B230" t="n">
-        <v>43.579899</v>
+        <v>64.497635</v>
       </c>
     </row>
     <row r="231">
@@ -7084,7 +7491,7 @@
         <v>40870</v>
       </c>
       <c r="B231" t="n">
-        <v>42.641136</v>
+        <v>63.10828</v>
       </c>
     </row>
     <row r="232">
@@ -7092,7 +7499,7 @@
         <v>40871</v>
       </c>
       <c r="B232" t="n">
-        <v>41.999863</v>
+        <v>62.159206</v>
       </c>
     </row>
     <row r="233">
@@ -7100,7 +7507,7 @@
         <v>40872</v>
       </c>
       <c r="B233" t="n">
-        <v>41.861034</v>
+        <v>61.953739</v>
       </c>
     </row>
     <row r="234">
@@ -7108,7 +7515,7 @@
         <v>40875</v>
       </c>
       <c r="B234" t="n">
-        <v>43.441063</v>
+        <v>64.292168</v>
       </c>
     </row>
     <row r="235">
@@ -7116,7 +7523,7 @@
         <v>40876</v>
       </c>
       <c r="B235" t="n">
-        <v>44.155064</v>
+        <v>65.34886899999999</v>
       </c>
     </row>
     <row r="236">
@@ -7124,7 +7531,7 @@
         <v>40877</v>
       </c>
       <c r="B236" t="n">
-        <v>45.516926</v>
+        <v>67.364418</v>
       </c>
     </row>
     <row r="237">
@@ -7132,7 +7539,7 @@
         <v>40878</v>
       </c>
       <c r="B237" t="n">
-        <v>45.417767</v>
+        <v>67.217651</v>
       </c>
     </row>
     <row r="238">
@@ -7140,7 +7547,7 @@
         <v>40879</v>
       </c>
       <c r="B238" t="n">
-        <v>45.259102</v>
+        <v>66.982834</v>
       </c>
     </row>
     <row r="239">
@@ -7148,7 +7555,7 @@
         <v>40882</v>
       </c>
       <c r="B239" t="n">
-        <v>46.277199</v>
+        <v>68.489609</v>
       </c>
     </row>
     <row r="240">
@@ -7156,7 +7563,7 @@
         <v>40883</v>
       </c>
       <c r="B240" t="n">
-        <v>46.402809</v>
+        <v>68.675507</v>
       </c>
     </row>
     <row r="241">
@@ -7164,7 +7571,7 @@
         <v>40884</v>
       </c>
       <c r="B241" t="n">
-        <v>46.356533</v>
+        <v>68.607018</v>
       </c>
     </row>
     <row r="242">
@@ -7172,7 +7579,7 @@
         <v>40885</v>
       </c>
       <c r="B242" t="n">
-        <v>44.822773</v>
+        <v>66.337082</v>
       </c>
     </row>
     <row r="243">
@@ -7180,7 +7587,7 @@
         <v>40886</v>
       </c>
       <c r="B243" t="n">
-        <v>45.391315</v>
+        <v>67.17852000000001</v>
       </c>
     </row>
     <row r="244">
@@ -7188,7 +7595,7 @@
         <v>40889</v>
       </c>
       <c r="B244" t="n">
-        <v>44.042671</v>
+        <v>65.182541</v>
       </c>
     </row>
     <row r="245">
@@ -7196,7 +7603,7 @@
         <v>40890</v>
       </c>
       <c r="B245" t="n">
-        <v>43.302242</v>
+        <v>64.08669999999999</v>
       </c>
     </row>
     <row r="246">
@@ -7204,7 +7611,7 @@
         <v>40891</v>
       </c>
       <c r="B246" t="n">
-        <v>42.389912</v>
+        <v>62.736481</v>
       </c>
     </row>
     <row r="247">
@@ -7212,7 +7619,7 @@
         <v>40892</v>
       </c>
       <c r="B247" t="n">
-        <v>42.112251</v>
+        <v>62.325542</v>
       </c>
     </row>
     <row r="248">
@@ -7220,7 +7627,7 @@
         <v>40893</v>
       </c>
       <c r="B248" t="n">
-        <v>42.310585</v>
+        <v>62.619068</v>
       </c>
     </row>
     <row r="249">
@@ -7228,7 +7635,7 @@
         <v>40896</v>
       </c>
       <c r="B249" t="n">
-        <v>42.25108</v>
+        <v>62.53101</v>
       </c>
     </row>
     <row r="250">
@@ -7236,7 +7643,7 @@
         <v>40897</v>
       </c>
       <c r="B250" t="n">
-        <v>43.097294</v>
+        <v>63.783394</v>
       </c>
     </row>
     <row r="251">
@@ -7244,7 +7651,7 @@
         <v>40898</v>
       </c>
       <c r="B251" t="n">
-        <v>43.441063</v>
+        <v>64.292168</v>
       </c>
     </row>
     <row r="252">
@@ -7252,7 +7659,7 @@
         <v>40899</v>
       </c>
       <c r="B252" t="n">
-        <v>43.533619</v>
+        <v>64.429146</v>
       </c>
     </row>
     <row r="253">
@@ -7260,7 +7667,7 @@
         <v>40900</v>
       </c>
       <c r="B253" t="n">
-        <v>44.18811</v>
+        <v>65.397789</v>
       </c>
     </row>
     <row r="254">
@@ -7268,7 +7675,7 @@
         <v>40905</v>
       </c>
       <c r="B254" t="n">
-        <v>64.08669999999999</v>
+        <v>43.302242</v>
       </c>
     </row>
     <row r="255">
@@ -7276,7 +7683,7 @@
         <v>40906</v>
       </c>
       <c r="B255" t="n">
-        <v>65.025986</v>
+        <v>43.936893</v>
       </c>
     </row>
     <row r="256">
@@ -7284,7 +7691,7 @@
         <v>40907</v>
       </c>
       <c r="B256" t="n">
-        <v>65.29016900000001</v>
+        <v>44.115398</v>
       </c>
     </row>
   </sheetData>

--- a/python/result_data/ANA.MC_resultados.xlsx
+++ b/python/result_data/ANA.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +406,7 @@
         <v>40552</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -415,24 +415,24 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02253738955501851</v>
+        <v>0.7878196308531654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40560</v>
+        <v>40556</v>
       </c>
       <c r="B3" t="n">
         <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.132184501821001</v>
       </c>
     </row>
     <row r="4">
@@ -440,7 +440,7 @@
         <v>40561</v>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -449,117 +449,117 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40568</v>
+        <v>40563</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40570</v>
+        <v>40567</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40582</v>
+        <v>40570</v>
       </c>
       <c r="B7" t="n">
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9014955822007353</v>
+        <v>-0.2088515128771816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40583</v>
+        <v>40582</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9014955822007353</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40588</v>
+        <v>40583</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9014955822007353</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40589</v>
+        <v>40588</v>
       </c>
       <c r="B10" t="n">
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9600927950437831</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40590</v>
+        <v>40597</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -568,15 +568,15 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9600927950437831</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40591</v>
+        <v>40598</v>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -585,92 +585,92 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40597</v>
+        <v>40609</v>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9014955822007353</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40598</v>
+        <v>40610</v>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.9014955822007353</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40604</v>
+        <v>40630</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9600927950437831</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40610</v>
+        <v>40639</v>
       </c>
       <c r="B16" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8428983693576876</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40638</v>
+        <v>40647</v>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="18">
@@ -678,16 +678,16 @@
         <v>40660</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.9600927950437831</v>
+        <v>3.241163984650943</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="20">
@@ -712,7 +712,7 @@
         <v>40665</v>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -721,423 +721,423 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9600927950437831</v>
+        <v>-0.4388525460457232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40666</v>
+        <v>40668</v>
       </c>
       <c r="B21" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.018690007886831</v>
+        <v>3.547832028875665</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40681</v>
+        <v>40673</v>
       </c>
       <c r="B22" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40701</v>
+        <v>40689</v>
       </c>
       <c r="B23" t="n">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40702</v>
+        <v>40701</v>
       </c>
       <c r="B24" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.9600927950437831</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40703</v>
+        <v>40702</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.4388525460457232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40707</v>
+        <v>40703</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.969767847108606</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40708</v>
+        <v>40707</v>
       </c>
       <c r="B27" t="n">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40715</v>
+        <v>40708</v>
       </c>
       <c r="B28" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.018690007886831</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40721</v>
+        <v>40709</v>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.9600927950437831</v>
+        <v>1.324488708246429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40735</v>
+        <v>40714</v>
       </c>
       <c r="B30" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.325198505835081</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40738</v>
+        <v>40715</v>
       </c>
       <c r="B31" t="n">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.383795718678128</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40744</v>
+        <v>40728</v>
       </c>
       <c r="B32" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.266601292992033</v>
+        <v>0.2511505534599017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40751</v>
+        <v>40735</v>
       </c>
       <c r="B33" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.266601292992033</v>
+        <v>0.02114952029136006</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40764</v>
+        <v>40744</v>
       </c>
       <c r="B34" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.032212441619842</v>
+        <v>0.02114952029136006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40766</v>
+        <v>40765</v>
       </c>
       <c r="B35" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.208004080148985</v>
+        <v>-0.05551749076482048</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40777</v>
+        <v>40766</v>
       </c>
       <c r="B36" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9736152287767939</v>
+        <v>0.02114952029136006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40785</v>
+        <v>40777</v>
       </c>
       <c r="B37" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9736152287767939</v>
+        <v>-0.05551749076482048</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40794</v>
+        <v>40778</v>
       </c>
       <c r="B38" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8564208030906983</v>
+        <v>-0.2088515128771816</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40798</v>
+        <v>40779</v>
       </c>
       <c r="B39" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7392263774046027</v>
+        <v>-0.2088515128771816</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40801</v>
+        <v>40785</v>
       </c>
       <c r="B40" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8564208030906983</v>
+        <v>-0.132184501821001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40813</v>
+        <v>40793</v>
       </c>
       <c r="B41" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.680629164561555</v>
+        <v>-0.2088515128771816</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40814</v>
+        <v>40801</v>
       </c>
       <c r="B42" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7978235902476505</v>
+        <v>-0.2088515128771816</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40826</v>
+        <v>40804</v>
       </c>
       <c r="B43" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.680629164561555</v>
+        <v>0.5578185976846238</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40840</v>
+        <v>40807</v>
       </c>
       <c r="B44" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6220319517185071</v>
+        <v>-0.2855185239333621</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40841</v>
+        <v>40827</v>
       </c>
       <c r="B45" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1146,15 +1146,15 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5634347388754594</v>
+        <v>-0.6688535792142648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40849</v>
+        <v>40828</v>
       </c>
       <c r="B46" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -1163,126 +1163,228 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.680629164561555</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40854</v>
+        <v>40829</v>
       </c>
       <c r="B47" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5634347388754594</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40855</v>
+        <v>40833</v>
       </c>
       <c r="B48" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5634347388754594</v>
+        <v>-0.4388525460457232</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40861</v>
+        <v>40841</v>
       </c>
       <c r="B49" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5048375260324116</v>
+        <v>-0.5155195571019037</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40868</v>
+        <v>40843</v>
       </c>
       <c r="B50" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5048375260324116</v>
+        <v>-0.3621855349895426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40878</v>
+        <v>40848</v>
       </c>
       <c r="B51" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5634347388754594</v>
+        <v>3.547832028875665</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40905</v>
+        <v>40854</v>
       </c>
       <c r="B52" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1.911170634265559</v>
+        <v>-0.4388525460457232</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40906</v>
+        <v>40855</v>
       </c>
       <c r="B53" t="n">
+        <v>48</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.4388525460457232</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>40856</v>
+      </c>
+      <c r="B54" t="n">
+        <v>47</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.5155195571019037</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>40868</v>
+      </c>
+      <c r="B55" t="n">
+        <v>46</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.5921865681580842</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B56" t="n">
+        <v>47</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.5155195571019037</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>40890</v>
+      </c>
+      <c r="B57" t="n">
+        <v>46</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.5921865681580842</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>40899</v>
+      </c>
+      <c r="B58" t="n">
+        <v>51</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.2088515128771816</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>40905</v>
+      </c>
+      <c r="B59" t="n">
         <v>100</v>
       </c>
-      <c r="C53" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
         <v>1</v>
       </c>
-      <c r="E53" t="n">
-        <v>1.969767847108606</v>
+      <c r="E59" t="n">
+        <v>3.547832028875665</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1443,7 @@
         <v>40553</v>
       </c>
       <c r="B2" t="n">
-        <v>31.494579</v>
+        <v>50.320293</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1358,22 +1460,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40561</v>
+        <v>40557</v>
       </c>
       <c r="B3" t="n">
-        <v>35.609756</v>
+        <v>54.253551</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.130663026167138</v>
+        <v>0.07816444947965628</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1.171680006619217</v>
+        <v>1.569021778119798</v>
       </c>
     </row>
     <row r="4">
@@ -1381,279 +1483,279 @@
         <v>40562</v>
       </c>
       <c r="B4" t="n">
-        <v>37.257053</v>
+        <v>59.527252</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04625971040071164</v>
+        <v>0.09720471568764211</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3420147742228555</v>
+        <v>1.980592405544527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40569</v>
+        <v>40564</v>
       </c>
       <c r="B5" t="n">
-        <v>38.424412</v>
+        <v>60.985104</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03133256406511808</v>
+        <v>0.02449049722637975</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1952843499370717</v>
+        <v>0.4088162450700163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40571</v>
+        <v>40568</v>
       </c>
       <c r="B6" t="n">
-        <v>38.468033</v>
+        <v>60.642654</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001135241835320766</v>
+        <v>-0.0056153056654622</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1015484005068199</v>
+        <v>-0.2419448341066884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40583</v>
+        <v>40571</v>
       </c>
       <c r="B7" t="n">
-        <v>42.598953</v>
+        <v>60.407833</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1073857870507702</v>
+        <v>-0.003872208495360407</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9428700857569736</v>
+        <v>-0.2042663905321879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40584</v>
+        <v>40583</v>
       </c>
       <c r="B8" t="n">
-        <v>41.944736</v>
+        <v>66.894775</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0153575840232506</v>
+        <v>0.1073857756162184</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2636690953464807</v>
+        <v>2.200664182739295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40589</v>
+        <v>40584</v>
       </c>
       <c r="B9" t="n">
-        <v>42.243809</v>
+        <v>65.86743199999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007130167656794972</v>
+        <v>-0.01535759706195294</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04261965487985245</v>
+        <v>-0.4525322775178796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40590</v>
+        <v>40589</v>
       </c>
       <c r="B10" t="n">
-        <v>42.773407</v>
+        <v>66.337082</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01253670094001236</v>
+        <v>0.00713023091594045</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01052532706958285</v>
+        <v>0.03356016305940075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40591</v>
+        <v>40598</v>
       </c>
       <c r="B11" t="n">
-        <v>42.218884</v>
+        <v>65.84787</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01296419992917552</v>
+        <v>-0.007374638516659426</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2401426787289191</v>
+        <v>-0.2799742249516801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40592</v>
+        <v>40599</v>
       </c>
       <c r="B12" t="n">
-        <v>42.636333</v>
+        <v>66.385994</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009887731755297002</v>
+        <v>0.008172230931691393</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01551343235936701</v>
+        <v>0.05608382925054481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40598</v>
+        <v>40610</v>
       </c>
       <c r="B13" t="n">
-        <v>41.932274</v>
+        <v>70.14314299999999</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01651312273970651</v>
+        <v>0.05659550717881845</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2750277758559582</v>
+        <v>1.102791788545369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40599</v>
+        <v>40611</v>
       </c>
       <c r="B14" t="n">
-        <v>42.274952</v>
+        <v>72.53048699999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00817217783132862</v>
+        <v>0.03403531546911154</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03237693389474019</v>
+        <v>0.6151351478576512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40605</v>
+        <v>40631</v>
       </c>
       <c r="B15" t="n">
-        <v>43.321709</v>
+        <v>77.8629</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02476069044383533</v>
+        <v>0.07351960838205884</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.130684339786168</v>
+        <v>1.468619811889696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40611</v>
+        <v>40640</v>
       </c>
       <c r="B16" t="n">
-        <v>46.187798</v>
+        <v>75.76907300000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06615826259301083</v>
+        <v>-0.02689120235696318</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5376129776709478</v>
+        <v>-0.7018404077658488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40639</v>
+        <v>40648</v>
       </c>
       <c r="B17" t="n">
-        <v>48.636452</v>
+        <v>73.675247</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0530151708033364</v>
+        <v>-0.02763430931773447</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4084194003207029</v>
+        <v>-0.7179032608135676</v>
       </c>
     </row>
     <row r="18">
@@ -1661,19 +1763,19 @@
         <v>40661</v>
       </c>
       <c r="B18" t="n">
-        <v>48.7673</v>
+        <v>76.58116099999999</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002690327822432392</v>
+        <v>0.03944220234511042</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08626226198041728</v>
+        <v>0.7320093448705088</v>
       </c>
     </row>
     <row r="19">
@@ -1681,19 +1783,19 @@
         <v>40662</v>
       </c>
       <c r="B19" t="n">
-        <v>48.935524</v>
+        <v>76.845337</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003449524578970076</v>
+        <v>0.003449621245622092</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0787995320185933</v>
+        <v>-0.04599916740222394</v>
       </c>
     </row>
     <row r="20">
@@ -1701,679 +1803,799 @@
         <v>40666</v>
       </c>
       <c r="B20" t="n">
-        <v>48.256382</v>
+        <v>75.778854</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01387830239643495</v>
+        <v>-0.01387830467839579</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.249128096292746</v>
+        <v>-0.4205561860181776</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40667</v>
+        <v>40669</v>
       </c>
       <c r="B21" t="n">
-        <v>47.465088</v>
+        <v>73.86114499999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01639770673234475</v>
+        <v>-0.02530665085011718</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2738932629792953</v>
+        <v>-0.6675890558816046</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40682</v>
+        <v>40674</v>
       </c>
       <c r="B22" t="n">
-        <v>46.486877</v>
+        <v>73.5187</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02060906323401324</v>
+        <v>-0.004636334841546241</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3152899313321108</v>
+        <v>-0.2207835944565514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40702</v>
+        <v>40690</v>
       </c>
       <c r="B23" t="n">
-        <v>44.779682</v>
+        <v>71.62056</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.036724235099725</v>
+        <v>-0.02581846523401532</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.4736983740534027</v>
+        <v>-0.6786523343465667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40703</v>
+        <v>40702</v>
       </c>
       <c r="B24" t="n">
-        <v>45.483734</v>
+        <v>70.31926</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01572257703839863</v>
+        <v>-0.01816936365758659</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04184175829686255</v>
+        <v>-0.5133108679690712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40704</v>
+        <v>40703</v>
       </c>
       <c r="B25" t="n">
-        <v>44.835758</v>
+        <v>71.42487300000001</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01424632375169554</v>
+        <v>0.0157227621564846</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2527456617931829</v>
+        <v>0.2192946184082497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40708</v>
+        <v>40704</v>
       </c>
       <c r="B26" t="n">
-        <v>46.200264</v>
+        <v>70.40731</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03043343217259764</v>
+        <v>-0.014246619661473</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1864460896887736</v>
+        <v>-0.4285176098249224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40709</v>
+        <v>40708</v>
       </c>
       <c r="B27" t="n">
-        <v>45.465054</v>
+        <v>72.55006400000001</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.01591354542909096</v>
+        <v>0.03043368650215461</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2691340684318559</v>
+        <v>0.5372830486543414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40716</v>
+        <v>40709</v>
       </c>
       <c r="B28" t="n">
-        <v>45.651966</v>
+        <v>71.395523</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004111113559878365</v>
+        <v>-0.01591371442484202</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07229626410059893</v>
+        <v>-0.4645532004118066</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40722</v>
+        <v>40710</v>
       </c>
       <c r="B29" t="n">
-        <v>42.493023</v>
+        <v>70.368179</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.06919620942502236</v>
+        <v>-0.01438947369290933</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7928904328052339</v>
+        <v>-0.4316055143062021</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40736</v>
+        <v>40715</v>
       </c>
       <c r="B30" t="n">
-        <v>65.79894299999999</v>
+        <v>71.35638400000001</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5484646267694344</v>
+        <v>0.01404335047521998</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5.278573899491132</v>
+        <v>0.1829927877609135</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40739</v>
+        <v>40716</v>
       </c>
       <c r="B31" t="n">
-        <v>65.33908099999999</v>
+        <v>71.689049</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.006988896462972072</v>
+        <v>0.004662021550867701</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1814068163530188</v>
+        <v>-0.01979216226536387</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40745</v>
+        <v>40729</v>
       </c>
       <c r="B32" t="n">
-        <v>69.448463</v>
+        <v>71.336823</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06289317108699488</v>
+        <v>-0.004913246931201432</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5055178771581827</v>
+        <v>-0.2267692714022381</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40752</v>
+        <v>40736</v>
       </c>
       <c r="B33" t="n">
-        <v>69.507164</v>
+        <v>65.79894299999999</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0008452454880103488</v>
+        <v>-0.0776300340709033</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1043989980775506</v>
+        <v>-1.79860095592171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40765</v>
+        <v>40745</v>
       </c>
       <c r="B34" t="n">
-        <v>56.122341</v>
+        <v>69.448463</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1925675316000521</v>
+        <v>0.05546472076306763</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.00560222918359</v>
+        <v>1.078348933097333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40767</v>
+        <v>40766</v>
       </c>
       <c r="B35" t="n">
-        <v>60.35891</v>
+        <v>58.490124</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07548810196638089</v>
+        <v>-0.1577909506794989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6293231585049436</v>
+        <v>-3.531343470293891</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40778</v>
+        <v>40767</v>
       </c>
       <c r="B36" t="n">
-        <v>59.977325</v>
+        <v>60.35891</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.006321933248960243</v>
+        <v>0.03195045372104177</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1748507209564318</v>
+        <v>0.5700691887805139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40786</v>
+        <v>40778</v>
       </c>
       <c r="B37" t="n">
-        <v>63.851883</v>
+        <v>59.977325</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06460038022702741</v>
+        <v>-0.006321933248960243</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5222993513817072</v>
+        <v>-0.2572191561523504</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40795</v>
+        <v>40779</v>
       </c>
       <c r="B38" t="n">
-        <v>59.830563</v>
+        <v>61.141651</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.06297887879046582</v>
+        <v>0.01941276974256523</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.7317754988839267</v>
+        <v>0.2990570923577074</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40799</v>
+        <v>40780</v>
       </c>
       <c r="B39" t="n">
-        <v>58.803219</v>
+        <v>61.503666</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01717088973406455</v>
+        <v>0.005920922874653733</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2814934745229032</v>
+        <v>0.007419999688502471</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40802</v>
+        <v>40786</v>
       </c>
       <c r="B40" t="n">
-        <v>63.343098</v>
+        <v>63.851883</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07720459997266471</v>
+        <v>0.03818011433659896</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.646195940152911</v>
+        <v>0.7047283001700715</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40814</v>
+        <v>40794</v>
       </c>
       <c r="B41" t="n">
-        <v>63.020226</v>
+        <v>62.071152</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.005097193067506667</v>
+        <v>-0.02788846493375929</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1628118059204062</v>
+        <v>-0.723397038327402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40815</v>
+        <v>40802</v>
       </c>
       <c r="B42" t="n">
-        <v>63.098492</v>
+        <v>63.343098</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00124191874526125</v>
+        <v>0.02049174147758692</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1004997909531144</v>
+        <v>0.3223799319181215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40827</v>
+        <v>40805</v>
       </c>
       <c r="B43" t="n">
-        <v>64.69332900000001</v>
+        <v>62.100506</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02527535840317707</v>
+        <v>-0.01961684917905337</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1357434077649177</v>
+        <v>-0.5445994286304988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40841</v>
+        <v>40808</v>
       </c>
       <c r="B44" t="n">
-        <v>67.25679</v>
+        <v>58.314007</v>
       </c>
       <c r="C44" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.0609737221786889</v>
+      </c>
+      <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.03962481201114243</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0.2767952450571797</v>
+        <v>-1.438561413345071</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40842</v>
+        <v>40828</v>
       </c>
       <c r="B45" t="n">
-        <v>66.640388</v>
+        <v>67.149162</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.009164903647646439</v>
+        <v>0.1515099965605178</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2027964678160616</v>
+        <v>3.154444613133482</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40850</v>
+        <v>40829</v>
       </c>
       <c r="B46" t="n">
-        <v>67.628593</v>
+        <v>66.44470200000001</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01482892026378946</v>
+        <v>-0.01049097232218621</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0330573172016748</v>
+        <v>-0.3473362799563317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40855</v>
+        <v>40830</v>
       </c>
       <c r="B47" t="n">
-        <v>67.22744</v>
+        <v>67.90255000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.00593170702220569</v>
+        <v>0.02194077113928516</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1710148866628665</v>
+        <v>0.3537018704092995</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40856</v>
+        <v>40834</v>
       </c>
       <c r="B48" t="n">
-        <v>65.896782</v>
+        <v>68.13737500000001</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.01979337603811782</v>
+        <v>0.003458264822160606</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.3072719133099503</v>
+        <v>-0.04581232956181298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40862</v>
+        <v>40842</v>
       </c>
       <c r="B49" t="n">
-        <v>65.769592</v>
+        <v>66.640388</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.001930139775262463</v>
+        <v>-0.02197013019653316</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.1316803985596702</v>
+        <v>-0.5954674855311232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40869</v>
+        <v>40844</v>
       </c>
       <c r="B50" t="n">
-        <v>64.497635</v>
+        <v>69.25277699999999</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01933959085529979</v>
+        <v>0.03920128736345285</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.3028113090583043</v>
+        <v>0.7268017742896293</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40879</v>
+        <v>40849</v>
       </c>
       <c r="B51" t="n">
-        <v>66.982834</v>
+        <v>65.84787</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03853162988069236</v>
+        <v>-0.04916636050565881</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2660495154839326</v>
+        <v>-1.183335819389798</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40906</v>
+        <v>40855</v>
       </c>
       <c r="B52" t="n">
-        <v>43.936893</v>
+        <v>67.22744</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.3440574192486391</v>
+        <v>0.02095086750717989</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.494713073945669</v>
+        <v>0.3323043093402895</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40907</v>
+        <v>40856</v>
       </c>
       <c r="B53" t="n">
-        <v>44.115398</v>
+        <v>65.896782</v>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.01979337603811782</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5484151982919543</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>40857</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65.93592099999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0005939440259767892</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.1077269212147717</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>40869</v>
+      </c>
+      <c r="B55" t="n">
+        <v>64.497635</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.0218133906099528</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5920794336369687</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>40879</v>
+      </c>
+      <c r="B56" t="n">
+        <v>66.982834</v>
+      </c>
+      <c r="C56" t="n">
         <v>4</v>
       </c>
-      <c r="D53" t="n">
-        <v>0.00406275883003393</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.07277158000270008</v>
+      <c r="D56" t="n">
+        <v>0.03853162988069236</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.712326590627344</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>40891</v>
+      </c>
+      <c r="B57" t="n">
+        <v>62.736481</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.06339464526090366</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1.490891607734698</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>40900</v>
+      </c>
+      <c r="B58" t="n">
+        <v>65.397789</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.04242042201888885</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.7963859521277938</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>40906</v>
+      </c>
+      <c r="B59" t="n">
+        <v>65.025986</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.005685253365369847</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.2434568097494361</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2640,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -2434,10 +2656,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -2467,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.75</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0625</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2165063509461096</v>
+        <v>0.04256282653793743</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="8">
@@ -2502,10 +2724,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.285714285714286</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0967032967032969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2535,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2796,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9102779573367807</v>
+        <v>0.6698763825634353</v>
       </c>
     </row>
     <row r="16">
@@ -2590,10 +2812,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.75</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7413793103448276</v>
       </c>
     </row>
     <row r="17">
@@ -2606,10 +2828,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7782338143783927</v>
+        <v>0.6972770299342308</v>
       </c>
     </row>
     <row r="19">
@@ -2624,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.007971370192226712</v>
+        <v>-0.1327927926183596</v>
       </c>
     </row>
     <row r="22">
@@ -2650,10 +2872,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01146594074721389</v>
+        <v>0.005577655498611216</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1017317738175435</v>
+        <v>0.04626245154355206</v>
       </c>
     </row>
     <row r="24">
@@ -2666,10 +2888,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66.38461538461539</v>
+        <v>53.72413793103448</v>
       </c>
       <c r="D24" t="n">
-        <v>17.06565810013</v>
+        <v>13.04341966934401</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2994,7 @@
         <v>40552</v>
       </c>
       <c r="B10" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -2804,7 +3026,7 @@
         <v>40556</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -2836,7 +3058,7 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2844,7 +3066,7 @@
         <v>40561</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -2860,7 +3082,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -2892,7 +3114,7 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -2900,7 +3122,7 @@
         <v>40568</v>
       </c>
       <c r="B26" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2916,7 +3138,7 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -3012,7 +3234,7 @@
         <v>40582</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -3020,7 +3242,7 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42">
@@ -3060,7 +3282,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -3068,7 +3290,7 @@
         <v>40589</v>
       </c>
       <c r="B47" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3076,7 +3298,7 @@
         <v>40590</v>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3084,7 +3306,7 @@
         <v>40591</v>
       </c>
       <c r="B49" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3092,7 +3314,7 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3132,7 +3354,7 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -3140,7 +3362,7 @@
         <v>40598</v>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -3148,7 +3370,7 @@
         <v>40599</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3188,7 +3410,7 @@
         <v>40604</v>
       </c>
       <c r="B62" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3204,7 +3426,7 @@
         <v>40606</v>
       </c>
       <c r="B64" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65">
@@ -3228,7 +3450,7 @@
         <v>40609</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -3236,7 +3458,7 @@
         <v>40610</v>
       </c>
       <c r="B68" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -3396,7 +3618,7 @@
         <v>40630</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89">
@@ -3460,7 +3682,7 @@
         <v>40638</v>
       </c>
       <c r="B96" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3468,7 +3690,7 @@
         <v>40639</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -3532,7 +3754,7 @@
         <v>40647</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -3540,7 +3762,7 @@
         <v>40648</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107">
@@ -3588,7 +3810,7 @@
         <v>40654</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113">
@@ -3636,7 +3858,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119">
@@ -3676,7 +3898,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124">
@@ -3684,7 +3906,7 @@
         <v>40666</v>
       </c>
       <c r="B124" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3700,7 +3922,7 @@
         <v>40668</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
@@ -3708,7 +3930,7 @@
         <v>40669</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128">
@@ -3740,7 +3962,7 @@
         <v>40673</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132">
@@ -3764,7 +3986,7 @@
         <v>40676</v>
       </c>
       <c r="B134" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3804,7 +4026,7 @@
         <v>40681</v>
       </c>
       <c r="B139" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3828,7 +4050,7 @@
         <v>40684</v>
       </c>
       <c r="B142" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3868,7 +4090,7 @@
         <v>40689</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148">
@@ -3964,7 +4186,7 @@
         <v>40701</v>
       </c>
       <c r="B159" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160">
@@ -3972,7 +4194,7 @@
         <v>40702</v>
       </c>
       <c r="B160" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161">
@@ -3988,7 +4210,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4012,7 +4234,7 @@
         <v>40707</v>
       </c>
       <c r="B165" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166">
@@ -4020,7 +4242,7 @@
         <v>40708</v>
       </c>
       <c r="B166" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167">
@@ -4028,7 +4250,7 @@
         <v>40709</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168">
@@ -4068,7 +4290,7 @@
         <v>40714</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173">
@@ -4076,7 +4298,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174">
@@ -4124,7 +4346,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4140,7 +4362,7 @@
         <v>40723</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182">
@@ -4180,7 +4402,7 @@
         <v>40728</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187">
@@ -4236,7 +4458,7 @@
         <v>40735</v>
       </c>
       <c r="B193" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -4260,7 +4482,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4308,7 +4530,7 @@
         <v>40744</v>
       </c>
       <c r="B202" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203">
@@ -4364,7 +4586,7 @@
         <v>40751</v>
       </c>
       <c r="B209" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4468,7 +4690,7 @@
         <v>40764</v>
       </c>
       <c r="B222" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4476,7 +4698,7 @@
         <v>40765</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="224">
@@ -4484,7 +4706,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225">
@@ -4492,7 +4714,7 @@
         <v>40767</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226">
@@ -4548,7 +4770,7 @@
         <v>40774</v>
       </c>
       <c r="B232" t="n">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233">
@@ -4572,7 +4794,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="236">
@@ -4580,7 +4802,7 @@
         <v>40778</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="237">
@@ -4588,7 +4810,7 @@
         <v>40779</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238">
@@ -4612,7 +4834,7 @@
         <v>40782</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241">
@@ -4636,7 +4858,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244">
@@ -4660,7 +4882,7 @@
         <v>40788</v>
       </c>
       <c r="B246" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -4700,7 +4922,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252">
@@ -4708,7 +4930,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -4740,7 +4962,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -4764,7 +4986,7 @@
         <v>40801</v>
       </c>
       <c r="B259" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260">
@@ -4772,7 +4994,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="261">
@@ -4780,7 +5002,7 @@
         <v>40803</v>
       </c>
       <c r="B261" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="262">
@@ -4788,7 +5010,7 @@
         <v>40804</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="263">
@@ -4812,7 +5034,7 @@
         <v>40807</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266">
@@ -4860,7 +5082,7 @@
         <v>40813</v>
       </c>
       <c r="B271" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -4868,7 +5090,7 @@
         <v>40814</v>
       </c>
       <c r="B272" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -4964,7 +5186,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4972,7 +5194,7 @@
         <v>40827</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286">
@@ -4980,7 +5202,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="287">
@@ -4988,7 +5210,7 @@
         <v>40829</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288">
@@ -5020,7 +5242,7 @@
         <v>40833</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="292">
@@ -5052,7 +5274,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5060,7 +5282,7 @@
         <v>40838</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297">
@@ -5076,7 +5298,7 @@
         <v>40840</v>
       </c>
       <c r="B298" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5084,7 +5306,7 @@
         <v>40841</v>
       </c>
       <c r="B299" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300">
@@ -5100,7 +5322,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="302">
@@ -5140,7 +5362,7 @@
         <v>40848</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307">
@@ -5148,7 +5370,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5164,7 +5386,7 @@
         <v>40851</v>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310">
@@ -5188,7 +5410,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="313">
@@ -5196,7 +5418,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="314">
@@ -5204,7 +5426,7 @@
         <v>40856</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="315">
@@ -5228,7 +5450,7 @@
         <v>40859</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="318">
@@ -5244,7 +5466,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -5300,7 +5522,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="327">
@@ -5380,7 +5602,7 @@
         <v>40878</v>
       </c>
       <c r="B336" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337">
@@ -5476,7 +5698,7 @@
         <v>40890</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="349">
@@ -5500,7 +5722,7 @@
         <v>40893</v>
       </c>
       <c r="B351" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="352">
@@ -5548,7 +5770,7 @@
         <v>40899</v>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="358">
@@ -5556,7 +5778,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5596,7 +5818,7 @@
         <v>40905</v>
       </c>
       <c r="B363" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364">
@@ -5604,7 +5826,7 @@
         <v>40906</v>
       </c>
       <c r="B364" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5659,7 +5881,7 @@
         <v>40546</v>
       </c>
       <c r="B2" t="n">
-        <v>32.523376</v>
+        <v>51.964043</v>
       </c>
     </row>
     <row r="3">
@@ -5667,7 +5889,7 @@
         <v>40547</v>
       </c>
       <c r="B3" t="n">
-        <v>32.811188</v>
+        <v>52.423904</v>
       </c>
     </row>
     <row r="4">
@@ -5675,7 +5897,7 @@
         <v>40548</v>
       </c>
       <c r="B4" t="n">
-        <v>32.541748</v>
+        <v>51.993393</v>
       </c>
     </row>
     <row r="5">
@@ -5683,7 +5905,7 @@
         <v>40549</v>
       </c>
       <c r="B5" t="n">
-        <v>32.100834</v>
+        <v>51.288929</v>
       </c>
     </row>
     <row r="6">
@@ -5691,7 +5913,7 @@
         <v>40550</v>
       </c>
       <c r="B6" t="n">
-        <v>31.678289</v>
+        <v>50.613819</v>
       </c>
     </row>
     <row r="7">
@@ -5699,7 +5921,7 @@
         <v>40553</v>
       </c>
       <c r="B7" t="n">
-        <v>31.494579</v>
+        <v>50.320293</v>
       </c>
     </row>
     <row r="8">
@@ -5707,7 +5929,7 @@
         <v>40554</v>
       </c>
       <c r="B8" t="n">
-        <v>31.512949</v>
+        <v>50.349644</v>
       </c>
     </row>
     <row r="9">
@@ -5715,7 +5937,7 @@
         <v>40555</v>
       </c>
       <c r="B9" t="n">
-        <v>33.405197</v>
+        <v>53.372971</v>
       </c>
     </row>
     <row r="10">
@@ -5723,7 +5945,7 @@
         <v>40556</v>
       </c>
       <c r="B10" t="n">
-        <v>33.686893</v>
+        <v>53.823044</v>
       </c>
     </row>
     <row r="11">
@@ -5731,7 +5953,7 @@
         <v>40557</v>
       </c>
       <c r="B11" t="n">
-        <v>33.956341</v>
+        <v>54.253551</v>
       </c>
     </row>
     <row r="12">
@@ -5739,7 +5961,7 @@
         <v>40560</v>
       </c>
       <c r="B12" t="n">
-        <v>34.556469</v>
+        <v>55.212406</v>
       </c>
     </row>
     <row r="13">
@@ -5747,7 +5969,7 @@
         <v>40561</v>
       </c>
       <c r="B13" t="n">
-        <v>35.609756</v>
+        <v>56.895294</v>
       </c>
     </row>
     <row r="14">
@@ -5755,7 +5977,7 @@
         <v>40562</v>
       </c>
       <c r="B14" t="n">
-        <v>37.257053</v>
+        <v>59.527252</v>
       </c>
     </row>
     <row r="15">
@@ -5763,7 +5985,7 @@
         <v>40563</v>
       </c>
       <c r="B15" t="n">
-        <v>38.200119</v>
+        <v>61.034023</v>
       </c>
     </row>
     <row r="16">
@@ -5771,7 +5993,7 @@
         <v>40564</v>
       </c>
       <c r="B16" t="n">
-        <v>38.835644</v>
+        <v>60.985104</v>
       </c>
     </row>
     <row r="17">
@@ -5779,7 +6001,7 @@
         <v>40567</v>
       </c>
       <c r="B17" t="n">
-        <v>39.190784</v>
+        <v>61.542805</v>
       </c>
     </row>
     <row r="18">
@@ -5787,7 +6009,7 @@
         <v>40568</v>
       </c>
       <c r="B18" t="n">
-        <v>38.617569</v>
+        <v>60.642654</v>
       </c>
     </row>
     <row r="19">
@@ -5795,7 +6017,7 @@
         <v>40569</v>
       </c>
       <c r="B19" t="n">
-        <v>38.424412</v>
+        <v>60.33934</v>
       </c>
     </row>
     <row r="20">
@@ -5803,7 +6025,7 @@
         <v>40570</v>
       </c>
       <c r="B20" t="n">
-        <v>38.144039</v>
+        <v>59.899052</v>
       </c>
     </row>
     <row r="21">
@@ -5811,7 +6033,7 @@
         <v>40571</v>
       </c>
       <c r="B21" t="n">
-        <v>38.468033</v>
+        <v>60.407833</v>
       </c>
     </row>
     <row r="22">
@@ -5819,7 +6041,7 @@
         <v>40574</v>
       </c>
       <c r="B22" t="n">
-        <v>39.371475</v>
+        <v>61.826546</v>
       </c>
     </row>
     <row r="23">
@@ -5827,7 +6049,7 @@
         <v>40575</v>
       </c>
       <c r="B23" t="n">
-        <v>41.059986</v>
+        <v>64.47807299999999</v>
       </c>
     </row>
     <row r="24">
@@ -5835,7 +6057,7 @@
         <v>40576</v>
       </c>
       <c r="B24" t="n">
-        <v>42.380875</v>
+        <v>66.552322</v>
       </c>
     </row>
     <row r="25">
@@ -5843,7 +6065,7 @@
         <v>40577</v>
       </c>
       <c r="B25" t="n">
-        <v>40.785831</v>
+        <v>64.047562</v>
       </c>
     </row>
     <row r="26">
@@ -5851,7 +6073,7 @@
         <v>40578</v>
       </c>
       <c r="B26" t="n">
-        <v>41.932274</v>
+        <v>65.84787</v>
       </c>
     </row>
     <row r="27">
@@ -5859,7 +6081,7 @@
         <v>40581</v>
       </c>
       <c r="B27" t="n">
-        <v>43.19709</v>
+        <v>67.83406100000001</v>
       </c>
     </row>
     <row r="28">
@@ -5867,7 +6089,7 @@
         <v>40582</v>
       </c>
       <c r="B28" t="n">
-        <v>42.885559</v>
+        <v>67.34485599999999</v>
       </c>
     </row>
     <row r="29">
@@ -5875,7 +6097,7 @@
         <v>40583</v>
       </c>
       <c r="B29" t="n">
-        <v>42.598953</v>
+        <v>66.894775</v>
       </c>
     </row>
     <row r="30">
@@ -5883,7 +6105,7 @@
         <v>40584</v>
       </c>
       <c r="B30" t="n">
-        <v>41.944736</v>
+        <v>65.86743199999999</v>
       </c>
     </row>
     <row r="31">
@@ -5891,7 +6113,7 @@
         <v>40585</v>
       </c>
       <c r="B31" t="n">
-        <v>42.287418</v>
+        <v>66.40557099999999</v>
       </c>
     </row>
     <row r="32">
@@ -5899,7 +6121,7 @@
         <v>40588</v>
       </c>
       <c r="B32" t="n">
-        <v>42.368423</v>
+        <v>66.53276099999999</v>
       </c>
     </row>
     <row r="33">
@@ -5907,7 +6129,7 @@
         <v>40589</v>
       </c>
       <c r="B33" t="n">
-        <v>42.243809</v>
+        <v>66.337082</v>
       </c>
     </row>
     <row r="34">
@@ -5915,7 +6137,7 @@
         <v>40590</v>
       </c>
       <c r="B34" t="n">
-        <v>42.773407</v>
+        <v>67.168739</v>
       </c>
     </row>
     <row r="35">
@@ -5923,7 +6145,7 @@
         <v>40591</v>
       </c>
       <c r="B35" t="n">
-        <v>42.218884</v>
+        <v>66.297943</v>
       </c>
     </row>
     <row r="36">
@@ -5931,7 +6153,7 @@
         <v>40592</v>
       </c>
       <c r="B36" t="n">
-        <v>42.636333</v>
+        <v>66.953484</v>
       </c>
     </row>
     <row r="37">
@@ -5939,7 +6161,7 @@
         <v>40595</v>
       </c>
       <c r="B37" t="n">
-        <v>41.122292</v>
+        <v>64.575912</v>
       </c>
     </row>
     <row r="38">
@@ -5947,7 +6169,7 @@
         <v>40596</v>
       </c>
       <c r="B38" t="n">
-        <v>41.259365</v>
+        <v>64.791168</v>
       </c>
     </row>
     <row r="39">
@@ -5955,7 +6177,7 @@
         <v>40597</v>
       </c>
       <c r="B39" t="n">
-        <v>41.084904</v>
+        <v>64.517212</v>
       </c>
     </row>
     <row r="40">
@@ -5963,7 +6185,7 @@
         <v>40598</v>
       </c>
       <c r="B40" t="n">
-        <v>41.932274</v>
+        <v>65.84787</v>
       </c>
     </row>
     <row r="41">
@@ -5971,7 +6193,7 @@
         <v>40599</v>
       </c>
       <c r="B41" t="n">
-        <v>42.274952</v>
+        <v>66.385994</v>
       </c>
     </row>
     <row r="42">
@@ -5979,7 +6201,7 @@
         <v>40602</v>
       </c>
       <c r="B42" t="n">
-        <v>43.919849</v>
+        <v>68.969032</v>
       </c>
     </row>
     <row r="43">
@@ -5987,7 +6209,7 @@
         <v>40603</v>
       </c>
       <c r="B43" t="n">
-        <v>44.03199</v>
+        <v>69.145149</v>
       </c>
     </row>
     <row r="44">
@@ -5995,7 +6217,7 @@
         <v>40604</v>
       </c>
       <c r="B44" t="n">
-        <v>43.29678</v>
+        <v>67.99060799999999</v>
       </c>
     </row>
     <row r="45">
@@ -6003,7 +6225,7 @@
         <v>40605</v>
       </c>
       <c r="B45" t="n">
-        <v>43.321709</v>
+        <v>68.029747</v>
       </c>
     </row>
     <row r="46">
@@ -6011,7 +6233,7 @@
         <v>40606</v>
       </c>
       <c r="B46" t="n">
-        <v>42.866871</v>
+        <v>67.31549800000001</v>
       </c>
     </row>
     <row r="47">
@@ -6019,7 +6241,7 @@
         <v>40609</v>
       </c>
       <c r="B47" t="n">
-        <v>43.408932</v>
+        <v>68.166725</v>
       </c>
     </row>
     <row r="48">
@@ -6027,7 +6249,7 @@
         <v>40610</v>
       </c>
       <c r="B48" t="n">
-        <v>44.66753</v>
+        <v>70.14314299999999</v>
       </c>
     </row>
     <row r="49">
@@ -6035,7 +6257,7 @@
         <v>40611</v>
       </c>
       <c r="B49" t="n">
-        <v>46.187798</v>
+        <v>72.53048699999999</v>
       </c>
     </row>
     <row r="50">
@@ -6043,7 +6265,7 @@
         <v>40612</v>
       </c>
       <c r="B50" t="n">
-        <v>44.169071</v>
+        <v>69.360405</v>
       </c>
     </row>
     <row r="51">
@@ -6051,7 +6273,7 @@
         <v>40613</v>
       </c>
       <c r="B51" t="n">
-        <v>44.088078</v>
+        <v>69.233208</v>
       </c>
     </row>
     <row r="52">
@@ -6059,7 +6281,7 @@
         <v>40616</v>
       </c>
       <c r="B52" t="n">
-        <v>45.558517</v>
+        <v>71.54228999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6067,7 +6289,7 @@
         <v>40617</v>
       </c>
       <c r="B53" t="n">
-        <v>46.437035</v>
+        <v>72.92186</v>
       </c>
     </row>
     <row r="54">
@@ -6075,7 +6297,7 @@
         <v>40618</v>
       </c>
       <c r="B54" t="n">
-        <v>46.418331</v>
+        <v>72.892509</v>
       </c>
     </row>
     <row r="55">
@@ -6083,7 +6305,7 @@
         <v>40619</v>
       </c>
       <c r="B55" t="n">
-        <v>46.150421</v>
+        <v>72.47178599999999</v>
       </c>
     </row>
     <row r="56">
@@ -6091,7 +6313,7 @@
         <v>40620</v>
       </c>
       <c r="B56" t="n">
-        <v>46.194035</v>
+        <v>72.54027600000001</v>
       </c>
     </row>
     <row r="57">
@@ -6099,7 +6321,7 @@
         <v>40623</v>
       </c>
       <c r="B57" t="n">
-        <v>47.583481</v>
+        <v>74.72216</v>
       </c>
     </row>
     <row r="58">
@@ -6107,7 +6329,7 @@
         <v>40624</v>
       </c>
       <c r="B58" t="n">
-        <v>47.128639</v>
+        <v>74.007912</v>
       </c>
     </row>
     <row r="59">
@@ -6115,7 +6337,7 @@
         <v>40625</v>
       </c>
       <c r="B59" t="n">
-        <v>48.119305</v>
+        <v>75.56360599999999</v>
       </c>
     </row>
     <row r="60">
@@ -6123,7 +6345,7 @@
         <v>40626</v>
       </c>
       <c r="B60" t="n">
-        <v>48.904369</v>
+        <v>76.79641700000001</v>
       </c>
     </row>
     <row r="61">
@@ -6131,7 +6353,7 @@
         <v>40627</v>
       </c>
       <c r="B61" t="n">
-        <v>48.356071</v>
+        <v>75.935402</v>
       </c>
     </row>
     <row r="62">
@@ -6139,7 +6361,7 @@
         <v>40630</v>
       </c>
       <c r="B62" t="n">
-        <v>49.190975</v>
+        <v>77.24648999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6147,7 +6369,7 @@
         <v>40631</v>
       </c>
       <c r="B63" t="n">
-        <v>49.583508</v>
+        <v>77.8629</v>
       </c>
     </row>
     <row r="64">
@@ -6155,7 +6377,7 @@
         <v>40632</v>
       </c>
       <c r="B64" t="n">
-        <v>50.138039</v>
+        <v>78.73369599999999</v>
       </c>
     </row>
     <row r="65">
@@ -6163,7 +6385,7 @@
         <v>40633</v>
       </c>
       <c r="B65" t="n">
-        <v>47.776623</v>
+        <v>75.025475</v>
       </c>
     </row>
     <row r="66">
@@ -6171,7 +6393,7 @@
         <v>40634</v>
       </c>
       <c r="B66" t="n">
-        <v>48.106846</v>
+        <v>75.544037</v>
       </c>
     </row>
     <row r="67">
@@ -6179,7 +6401,7 @@
         <v>40637</v>
       </c>
       <c r="B67" t="n">
-        <v>48.318695</v>
+        <v>75.876701</v>
       </c>
     </row>
     <row r="68">
@@ -6187,7 +6409,7 @@
         <v>40638</v>
       </c>
       <c r="B68" t="n">
-        <v>47.726772</v>
+        <v>74.947197</v>
       </c>
     </row>
     <row r="69">
@@ -6195,7 +6417,7 @@
         <v>40639</v>
       </c>
       <c r="B69" t="n">
-        <v>48.636452</v>
+        <v>76.375694</v>
       </c>
     </row>
     <row r="70">
@@ -6203,7 +6425,7 @@
         <v>40640</v>
       </c>
       <c r="B70" t="n">
-        <v>48.250145</v>
+        <v>75.76907300000001</v>
       </c>
     </row>
     <row r="71">
@@ -6211,7 +6433,7 @@
         <v>40641</v>
       </c>
       <c r="B71" t="n">
-        <v>49.203438</v>
+        <v>77.26606</v>
       </c>
     </row>
     <row r="72">
@@ -6219,7 +6441,7 @@
         <v>40644</v>
       </c>
       <c r="B72" t="n">
-        <v>48.642677</v>
+        <v>76.385475</v>
       </c>
     </row>
     <row r="73">
@@ -6227,7 +6449,7 @@
         <v>40645</v>
       </c>
       <c r="B73" t="n">
-        <v>48.480682</v>
+        <v>76.13108800000001</v>
       </c>
     </row>
     <row r="74">
@@ -6235,7 +6457,7 @@
         <v>40646</v>
       </c>
       <c r="B74" t="n">
-        <v>48.31245</v>
+        <v>75.866913</v>
       </c>
     </row>
     <row r="75">
@@ -6243,7 +6465,7 @@
         <v>40647</v>
       </c>
       <c r="B75" t="n">
-        <v>47.440166</v>
+        <v>74.497124</v>
       </c>
     </row>
     <row r="76">
@@ -6251,7 +6473,7 @@
         <v>40648</v>
       </c>
       <c r="B76" t="n">
-        <v>46.916786</v>
+        <v>73.675247</v>
       </c>
     </row>
     <row r="77">
@@ -6259,7 +6481,7 @@
         <v>40651</v>
       </c>
       <c r="B77" t="n">
-        <v>45.45882</v>
+        <v>71.385735</v>
       </c>
     </row>
     <row r="78">
@@ -6267,7 +6489,7 @@
         <v>40652</v>
       </c>
       <c r="B78" t="n">
-        <v>45.882504</v>
+        <v>72.051064</v>
       </c>
     </row>
     <row r="79">
@@ -6275,7 +6497,7 @@
         <v>40653</v>
       </c>
       <c r="B79" t="n">
-        <v>46.748558</v>
+        <v>73.411072</v>
       </c>
     </row>
     <row r="80">
@@ -6283,7 +6505,7 @@
         <v>40654</v>
       </c>
       <c r="B80" t="n">
-        <v>47.739235</v>
+        <v>74.96676600000001</v>
       </c>
     </row>
     <row r="81">
@@ -6291,7 +6513,7 @@
         <v>40659</v>
       </c>
       <c r="B81" t="n">
-        <v>47.976002</v>
+        <v>75.33857</v>
       </c>
     </row>
     <row r="82">
@@ -6299,7 +6521,7 @@
         <v>40660</v>
       </c>
       <c r="B82" t="n">
-        <v>48.007156</v>
+        <v>75.387489</v>
       </c>
     </row>
     <row r="83">
@@ -6307,7 +6529,7 @@
         <v>40661</v>
       </c>
       <c r="B83" t="n">
-        <v>48.7673</v>
+        <v>76.58116099999999</v>
       </c>
     </row>
     <row r="84">
@@ -6315,7 +6537,7 @@
         <v>40662</v>
       </c>
       <c r="B84" t="n">
-        <v>48.935524</v>
+        <v>76.845337</v>
       </c>
     </row>
     <row r="85">
@@ -6323,7 +6545,7 @@
         <v>40665</v>
       </c>
       <c r="B85" t="n">
-        <v>48.412144</v>
+        <v>76.02346</v>
       </c>
     </row>
     <row r="86">
@@ -6331,7 +6553,7 @@
         <v>40666</v>
       </c>
       <c r="B86" t="n">
-        <v>48.256382</v>
+        <v>75.778854</v>
       </c>
     </row>
     <row r="87">
@@ -6339,7 +6561,7 @@
         <v>40667</v>
       </c>
       <c r="B87" t="n">
-        <v>47.465088</v>
+        <v>74.53626300000001</v>
       </c>
     </row>
     <row r="88">
@@ -6347,7 +6569,7 @@
         <v>40668</v>
       </c>
       <c r="B88" t="n">
-        <v>47.29063</v>
+        <v>74.262306</v>
       </c>
     </row>
     <row r="89">
@@ -6355,7 +6577,7 @@
         <v>40669</v>
       </c>
       <c r="B89" t="n">
-        <v>47.035175</v>
+        <v>73.86114499999999</v>
       </c>
     </row>
     <row r="90">
@@ -6363,7 +6585,7 @@
         <v>40672</v>
       </c>
       <c r="B90" t="n">
-        <v>46.729862</v>
+        <v>73.381721</v>
       </c>
     </row>
     <row r="91">
@@ -6371,7 +6593,7 @@
         <v>40673</v>
       </c>
       <c r="B91" t="n">
-        <v>46.904327</v>
+        <v>73.65567799999999</v>
       </c>
     </row>
     <row r="92">
@@ -6379,7 +6601,7 @@
         <v>40674</v>
       </c>
       <c r="B92" t="n">
-        <v>46.817093</v>
+        <v>73.5187</v>
       </c>
     </row>
     <row r="93">
@@ -6387,7 +6609,7 @@
         <v>40675</v>
       </c>
       <c r="B93" t="n">
-        <v>47.926155</v>
+        <v>75.26029200000001</v>
       </c>
     </row>
     <row r="94">
@@ -6395,7 +6617,7 @@
         <v>40676</v>
       </c>
       <c r="B94" t="n">
-        <v>46.935482</v>
+        <v>73.704605</v>
       </c>
     </row>
     <row r="95">
@@ -6403,7 +6625,7 @@
         <v>40679</v>
       </c>
       <c r="B95" t="n">
-        <v>47.863853</v>
+        <v>75.162453</v>
       </c>
     </row>
     <row r="96">
@@ -6411,7 +6633,7 @@
         <v>40680</v>
       </c>
       <c r="B96" t="n">
-        <v>46.44326</v>
+        <v>72.931648</v>
       </c>
     </row>
     <row r="97">
@@ -6419,7 +6641,7 @@
         <v>40681</v>
       </c>
       <c r="B97" t="n">
-        <v>46.1255</v>
+        <v>72.432648</v>
       </c>
     </row>
     <row r="98">
@@ -6427,7 +6649,7 @@
         <v>40682</v>
       </c>
       <c r="B98" t="n">
-        <v>46.486877</v>
+        <v>73.000137</v>
       </c>
     </row>
     <row r="99">
@@ -6435,7 +6657,7 @@
         <v>40683</v>
       </c>
       <c r="B99" t="n">
-        <v>45.708042</v>
+        <v>71.777107</v>
       </c>
     </row>
     <row r="100">
@@ -6443,7 +6665,7 @@
         <v>40686</v>
       </c>
       <c r="B100" t="n">
-        <v>44.823288</v>
+        <v>70.387749</v>
       </c>
     </row>
     <row r="101">
@@ -6451,7 +6673,7 @@
         <v>40687</v>
       </c>
       <c r="B101" t="n">
-        <v>45.153515</v>
+        <v>70.906311</v>
       </c>
     </row>
     <row r="102">
@@ -6459,7 +6681,7 @@
         <v>40688</v>
       </c>
       <c r="B102" t="n">
-        <v>45.060062</v>
+        <v>70.75954400000001</v>
       </c>
     </row>
     <row r="103">
@@ -6467,7 +6689,7 @@
         <v>40689</v>
       </c>
       <c r="B103" t="n">
-        <v>45.539822</v>
+        <v>71.51293200000001</v>
       </c>
     </row>
     <row r="104">
@@ -6475,7 +6697,7 @@
         <v>40690</v>
       </c>
       <c r="B104" t="n">
-        <v>45.608345</v>
+        <v>71.62056</v>
       </c>
     </row>
     <row r="105">
@@ -6483,7 +6705,7 @@
         <v>40693</v>
       </c>
       <c r="B105" t="n">
-        <v>45.832661</v>
+        <v>71.972786</v>
       </c>
     </row>
     <row r="106">
@@ -6491,7 +6713,7 @@
         <v>40694</v>
       </c>
       <c r="B106" t="n">
-        <v>46.954185</v>
+        <v>73.73395499999999</v>
       </c>
     </row>
     <row r="107">
@@ -6499,7 +6721,7 @@
         <v>40695</v>
       </c>
       <c r="B107" t="n">
-        <v>46.748558</v>
+        <v>73.411072</v>
       </c>
     </row>
     <row r="108">
@@ -6507,7 +6729,7 @@
         <v>40696</v>
       </c>
       <c r="B108" t="n">
-        <v>46.499332</v>
+        <v>73.019699</v>
       </c>
     </row>
     <row r="109">
@@ -6515,7 +6737,7 @@
         <v>40697</v>
       </c>
       <c r="B109" t="n">
-        <v>46.711182</v>
+        <v>73.35237100000001</v>
       </c>
     </row>
     <row r="110">
@@ -6523,7 +6745,7 @@
         <v>40700</v>
       </c>
       <c r="B110" t="n">
-        <v>46.144188</v>
+        <v>72.46199799999999</v>
       </c>
     </row>
     <row r="111">
@@ -6531,7 +6753,7 @@
         <v>40701</v>
       </c>
       <c r="B111" t="n">
-        <v>45.757889</v>
+        <v>71.855385</v>
       </c>
     </row>
     <row r="112">
@@ -6539,7 +6761,7 @@
         <v>40702</v>
       </c>
       <c r="B112" t="n">
-        <v>44.779682</v>
+        <v>70.31926</v>
       </c>
     </row>
     <row r="113">
@@ -6547,7 +6769,7 @@
         <v>40703</v>
       </c>
       <c r="B113" t="n">
-        <v>45.483734</v>
+        <v>71.42487300000001</v>
       </c>
     </row>
     <row r="114">
@@ -6555,7 +6777,7 @@
         <v>40704</v>
       </c>
       <c r="B114" t="n">
-        <v>44.835758</v>
+        <v>70.40731</v>
       </c>
     </row>
     <row r="115">
@@ -6563,7 +6785,7 @@
         <v>40707</v>
       </c>
       <c r="B115" t="n">
-        <v>44.79837</v>
+        <v>70.34860999999999</v>
       </c>
     </row>
     <row r="116">
@@ -6571,7 +6793,7 @@
         <v>40708</v>
       </c>
       <c r="B116" t="n">
-        <v>46.200264</v>
+        <v>72.55006400000001</v>
       </c>
     </row>
     <row r="117">
@@ -6579,7 +6801,7 @@
         <v>40709</v>
       </c>
       <c r="B117" t="n">
-        <v>45.465054</v>
+        <v>71.395523</v>
       </c>
     </row>
     <row r="118">
@@ -6587,7 +6809,7 @@
         <v>40710</v>
       </c>
       <c r="B118" t="n">
-        <v>44.810829</v>
+        <v>70.368179</v>
       </c>
     </row>
     <row r="119">
@@ -6595,7 +6817,7 @@
         <v>40711</v>
       </c>
       <c r="B119" t="n">
-        <v>45.37159</v>
+        <v>71.248756</v>
       </c>
     </row>
     <row r="120">
@@ -6603,7 +6825,7 @@
         <v>40714</v>
       </c>
       <c r="B120" t="n">
-        <v>44.331074</v>
+        <v>69.61479199999999</v>
       </c>
     </row>
     <row r="121">
@@ -6611,7 +6833,7 @@
         <v>40715</v>
       </c>
       <c r="B121" t="n">
-        <v>45.440125</v>
+        <v>71.35638400000001</v>
       </c>
     </row>
     <row r="122">
@@ -6619,7 +6841,7 @@
         <v>40716</v>
       </c>
       <c r="B122" t="n">
-        <v>45.651966</v>
+        <v>71.689049</v>
       </c>
     </row>
     <row r="123">
@@ -6627,7 +6849,7 @@
         <v>40717</v>
       </c>
       <c r="B123" t="n">
-        <v>43.577168</v>
+        <v>68.43090100000001</v>
       </c>
     </row>
     <row r="124">
@@ -6635,7 +6857,7 @@
         <v>40718</v>
       </c>
       <c r="B124" t="n">
-        <v>42.530422</v>
+        <v>66.787155</v>
       </c>
     </row>
     <row r="125">
@@ -6643,7 +6865,7 @@
         <v>40721</v>
       </c>
       <c r="B125" t="n">
-        <v>42.617649</v>
+        <v>66.924133</v>
       </c>
     </row>
     <row r="126">
@@ -6651,7 +6873,7 @@
         <v>40722</v>
       </c>
       <c r="B126" t="n">
-        <v>42.493023</v>
+        <v>66.72843899999999</v>
       </c>
     </row>
     <row r="127">
@@ -6659,7 +6881,7 @@
         <v>40723</v>
       </c>
       <c r="B127" t="n">
-        <v>43.969696</v>
+        <v>69.04731</v>
       </c>
     </row>
     <row r="128">
@@ -7675,7 +7897,7 @@
         <v>40905</v>
       </c>
       <c r="B254" t="n">
-        <v>43.302242</v>
+        <v>64.08669999999999</v>
       </c>
     </row>
     <row r="255">
@@ -7683,7 +7905,7 @@
         <v>40906</v>
       </c>
       <c r="B255" t="n">
-        <v>43.936893</v>
+        <v>65.025986</v>
       </c>
     </row>
     <row r="256">
@@ -7691,7 +7913,7 @@
         <v>40907</v>
       </c>
       <c r="B256" t="n">
-        <v>44.115398</v>
+        <v>65.29016900000001</v>
       </c>
     </row>
   </sheetData>
